--- a/metadata/excel/projects/epfl/granular_sludge/metadata.xlsx
+++ b/metadata/excel/projects/epfl/granular_sludge/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1725,294 +1725,6 @@
     <t>55cc659b43fe67f212415c0810fc2e38</t>
   </si>
   <si>
-    <t>e51870a8b2d846f29173aefaa2235318</t>
-  </si>
-  <si>
-    <t>5362a3521f6fcda82619cb76aaca1b2f</t>
-  </si>
-  <si>
-    <t>99c6102dd5574405b822caadf32b8fd9</t>
-  </si>
-  <si>
-    <t>d0ef806afe742859da8f22d1cd254403</t>
-  </si>
-  <si>
-    <t>113c7411c6e9c4314c03bcac650979a3</t>
-  </si>
-  <si>
-    <t>d0068f1072d09188f076ed4f5624d735</t>
-  </si>
-  <si>
-    <t>23f9fa4e7ec2faf80350f32b5f6414d1</t>
-  </si>
-  <si>
-    <t>304ca11426a0a99e085534c6e6fd9646</t>
-  </si>
-  <si>
-    <t>14edac531a5a9e9da4558e7fc7500062</t>
-  </si>
-  <si>
-    <t>f4d80b4ca890068c666cf056f1872221</t>
-  </si>
-  <si>
-    <t>52bedfa93f0784322ce1940ac10c125d</t>
-  </si>
-  <si>
-    <t>4be122813441388fb14c4ea0b2cfdb85</t>
-  </si>
-  <si>
-    <t>d84a7dacaadbc948a42a236d5198ccc2</t>
-  </si>
-  <si>
-    <t>c47925d919b97c0f72d0f098aabe70ea</t>
-  </si>
-  <si>
-    <t>29f0f2afa0ba23e6023706d6ffe0dc0d</t>
-  </si>
-  <si>
-    <t>d436697c2ea86ca0ec799ed2ee08d7f0</t>
-  </si>
-  <si>
-    <t>26b2bbc6030a2407db5fa4e5d2687f72</t>
-  </si>
-  <si>
-    <t>8e8d118d65971d265c707869561e92ad</t>
-  </si>
-  <si>
-    <t>0b44c12e7b37370531146834c73364f6</t>
-  </si>
-  <si>
-    <t>41bfa1863db657f6a6bd91b5c3dceae7</t>
-  </si>
-  <si>
-    <t>167795c0d8cec69eaa673dbf78d37252</t>
-  </si>
-  <si>
-    <t>8ff7922afbe72c03d638cb1cbef11787</t>
-  </si>
-  <si>
-    <t>f4a8877284be997c352a24dc707e2c43</t>
-  </si>
-  <si>
-    <t>029777b84f8b014fcf5a8baa6f118257</t>
-  </si>
-  <si>
-    <t>67cc20752ced8f5ef356b96d1362a7ef</t>
-  </si>
-  <si>
-    <t>eb6daa50ad10260204bca3183413730a</t>
-  </si>
-  <si>
-    <t>f94f6ae9480a6ad0604a9bb7b9e51100</t>
-  </si>
-  <si>
-    <t>9d2628da37cd8b511c7c4c206060e54c</t>
-  </si>
-  <si>
-    <t>44c44b1bf19e8f6adb1e74305084f672</t>
-  </si>
-  <si>
-    <t>d03c542912e52cf03024f60c93a2edf1</t>
-  </si>
-  <si>
-    <t>9bac3ca9ccc4eb15a7b369a2d9460cec</t>
-  </si>
-  <si>
-    <t>cb36aef120a6b85b6966e4335ae7cbb5</t>
-  </si>
-  <si>
-    <t>0f80f3dc5b406832b0c96035d9e3a29f</t>
-  </si>
-  <si>
-    <t>ea12c1b11e2ff4e6eae3bea35b161f02</t>
-  </si>
-  <si>
-    <t>f7abc4c2f21a5fe5ed73b3ad78ffd5ff</t>
-  </si>
-  <si>
-    <t>7dc822ec78a8e60a7e970e3955e3b8de</t>
-  </si>
-  <si>
-    <t>7810a34fe39fc9126948f1d0e4486d99</t>
-  </si>
-  <si>
-    <t>8a6c9e510812f51405286e1c2473aa3f</t>
-  </si>
-  <si>
-    <t>f400438879ed9d1c0c1bfc89669d237b</t>
-  </si>
-  <si>
-    <t>4312c6811fe52262d35faac17e02ac31</t>
-  </si>
-  <si>
-    <t>8149df2fa3bf4caeaf0892e4dd502067</t>
-  </si>
-  <si>
-    <t>6fe38bb220ebaa82f77a7c00a5cb4511</t>
-  </si>
-  <si>
-    <t>12b974dfa776c85c1e23bfd0abe4aaa1</t>
-  </si>
-  <si>
-    <t>5a0925796199f8e270dbc4eb04707ded</t>
-  </si>
-  <si>
-    <t>13e594f9969681da0ed61d4879830952</t>
-  </si>
-  <si>
-    <t>7a63940a2c8289c855b1c0f38b0fcb65</t>
-  </si>
-  <si>
-    <t>0998a40f7a1aedf75e8421f7909bf72a</t>
-  </si>
-  <si>
-    <t>06b7d8727205e1c424a0e050bd84e2b4</t>
-  </si>
-  <si>
-    <t>de9be15361e7ea67a2aebc68564e2c7c</t>
-  </si>
-  <si>
-    <t>333d7454b829d9c320b23ac7937042da</t>
-  </si>
-  <si>
-    <t>d3455854cbb097317ca30f09aa64faa9</t>
-  </si>
-  <si>
-    <t>797715b77e25284970a89d23eb135aba</t>
-  </si>
-  <si>
-    <t>b978f9c1e26003ff4102be6491051ddf</t>
-  </si>
-  <si>
-    <t>b60929301c42f691479dd628ae70a392</t>
-  </si>
-  <si>
-    <t>2b8a4b806e6f2aa05b7bc72a9f1b1d89</t>
-  </si>
-  <si>
-    <t>6bc3f7741c44fee6db2aa3676959680e</t>
-  </si>
-  <si>
-    <t>e94fe5842d800fef180136cff349aa0e</t>
-  </si>
-  <si>
-    <t>0c4b5b1ca12f7c2fbb3b2991067a5e12</t>
-  </si>
-  <si>
-    <t>765b86d9968f574d6d763290e4eae5fe</t>
-  </si>
-  <si>
-    <t>0d5aec2b2b30f29102225df9447c0415</t>
-  </si>
-  <si>
-    <t>c2cc40f4ff9f79d5adef9922810cd01b</t>
-  </si>
-  <si>
-    <t>fb379186575342ba1fdcea0dd8f2ee5b</t>
-  </si>
-  <si>
-    <t>de672e2f036b58ab4dac4ccf56668974</t>
-  </si>
-  <si>
-    <t>2702cda96c162d7ab75ed7f8ec875cc7</t>
-  </si>
-  <si>
-    <t>7292747590b4e5f7673e116cac70725b</t>
-  </si>
-  <si>
-    <t>b037c094fe674c126c259a96dca6ad1e</t>
-  </si>
-  <si>
-    <t>07803b85d7d6dad54c9288d8ff12410a</t>
-  </si>
-  <si>
-    <t>a807489d55fe79257e8cc88333a64dd4</t>
-  </si>
-  <si>
-    <t>b31d0d48624be32b18958483e08a19af</t>
-  </si>
-  <si>
-    <t>e4674d57c843756e01db710b40afe2cf</t>
-  </si>
-  <si>
-    <t>09a8674f135600099acf5f77626173f2</t>
-  </si>
-  <si>
-    <t>e246eb6f5235795a3022b514e0948467</t>
-  </si>
-  <si>
-    <t>303e3f7b0b997d00855fbe4595cb11d9</t>
-  </si>
-  <si>
-    <t>4a76561b1b100e159b5e6b6c1ea27092</t>
-  </si>
-  <si>
-    <t>69dfdc2f2ae61f544d7e654604ddeabf</t>
-  </si>
-  <si>
-    <t>db3e25a2c48b8b4ce53eeb7e88c666a8</t>
-  </si>
-  <si>
-    <t>7e545039412323e61dad7fbdd067e742</t>
-  </si>
-  <si>
-    <t>ea50c7777610a54616c7024e14bfa4a3</t>
-  </si>
-  <si>
-    <t>e2dc35995560958bb94daeef925f8997</t>
-  </si>
-  <si>
-    <t>68d413e812e7aad1a6dd94615ffdd18b</t>
-  </si>
-  <si>
-    <t>468325433e4d0dfe8c302df24798df12</t>
-  </si>
-  <si>
-    <t>c454f0b7088c89900a872edab61ae595</t>
-  </si>
-  <si>
-    <t>9fb4aa7a5c02ef53a99a3203752cda0f</t>
-  </si>
-  <si>
-    <t>cd84868bde75104e5ee0791f73098487</t>
-  </si>
-  <si>
-    <t>d801fe429bd318433eb50eea90298b6d</t>
-  </si>
-  <si>
-    <t>cb556e234f218cd5780c2970ee1f528c</t>
-  </si>
-  <si>
-    <t>55fce64e55ec3b0f22ae8aefce899cd7</t>
-  </si>
-  <si>
-    <t>27fd5cec34d5e690556f2f17ca6416b0</t>
-  </si>
-  <si>
-    <t>f7ec223ef255bd140c224ec782c31c80</t>
-  </si>
-  <si>
-    <t>237a4aa59914003dca1d5ec1d858403a</t>
-  </si>
-  <si>
-    <t>61d224117737f01996d7e89719853fb7</t>
-  </si>
-  <si>
-    <t>5294ef70319c726d1d597451e48ebb97</t>
-  </si>
-  <si>
-    <t>0b625adfa9df45975d591a400c7b07ad</t>
-  </si>
-  <si>
-    <t>89b1cf572a85fe9a721b1da8af6c5c42</t>
-  </si>
-  <si>
-    <t>9283ea2ca2669e8ea37a361245bd7bfe</t>
-  </si>
-  <si>
-    <t>2145fab411b379c614d56850a15033fb</t>
-  </si>
-  <si>
     <t>401b2054d92ca18c40ab51ec97f01531</t>
   </si>
   <si>
@@ -2157,294 +1869,6 @@
     <t>d4f1089fab369fbdebd19d93da3b0bfa</t>
   </si>
   <si>
-    <t>827b7c158df4ba22d3839609467bca9b</t>
-  </si>
-  <si>
-    <t>2e3bd4078e97a5dccf9756dc47f8c480</t>
-  </si>
-  <si>
-    <t>ecb78b320a05bc7b8cb9c12f9e312121</t>
-  </si>
-  <si>
-    <t>9f10c33d777cc869ba9e8a9c64646306</t>
-  </si>
-  <si>
-    <t>f71ac76703e57ed6119754a714bfb9d2</t>
-  </si>
-  <si>
-    <t>f9eeb169721f90669f16c9d0e3e5ad82</t>
-  </si>
-  <si>
-    <t>29e1d911f63bac58c2ecda6d23db64c6</t>
-  </si>
-  <si>
-    <t>ee8dc5ca5b2a1164eb860ea4028cbb16</t>
-  </si>
-  <si>
-    <t>e14236352e0a0d4581460cfaa37671d6</t>
-  </si>
-  <si>
-    <t>155e97dfd1d1858804e23c28cc269037</t>
-  </si>
-  <si>
-    <t>fe69849f5e44e98bf2d2daf2bf4ddff6</t>
-  </si>
-  <si>
-    <t>1c24f829a8384ce5b03e50982e49a6cb</t>
-  </si>
-  <si>
-    <t>45ee4d74c15e55597b5bf931cdbe6474</t>
-  </si>
-  <si>
-    <t>20f6fd27d91617a4505cd7bb78ae7b00</t>
-  </si>
-  <si>
-    <t>b3c169d012e5cbfa85ed8e33c5dd3aa3</t>
-  </si>
-  <si>
-    <t>70fe06e96e1ff9faa28a67732bd4e636</t>
-  </si>
-  <si>
-    <t>6318814794f1c7485efed7ac26c18f6c</t>
-  </si>
-  <si>
-    <t>50bec04da69b77c2b3114405264a2ed1</t>
-  </si>
-  <si>
-    <t>80a3e4c233852bffa1ebe795abbd6b16</t>
-  </si>
-  <si>
-    <t>161bfdc562dd350c4a911ae17422c34e</t>
-  </si>
-  <si>
-    <t>b1a39eca3821aebab8a824845de3f973</t>
-  </si>
-  <si>
-    <t>9e58882f5248e667b990696db3a71bb4</t>
-  </si>
-  <si>
-    <t>1e119316c52d6e64e432a0b19bf554be</t>
-  </si>
-  <si>
-    <t>4fb4fd1352a4249a4a9e0c291dc998b9</t>
-  </si>
-  <si>
-    <t>0398c4bb6c61d66df20b9dcf5e2aef8c</t>
-  </si>
-  <si>
-    <t>dd242ee52ad53d0171976a8f42fe3a3b</t>
-  </si>
-  <si>
-    <t>7039d46eae956784119860842408b20d</t>
-  </si>
-  <si>
-    <t>8f3bdc1fd55b706479d19ad9cf7f362d</t>
-  </si>
-  <si>
-    <t>0bf22487944a458ce92d9b4b631035eb</t>
-  </si>
-  <si>
-    <t>d1889e6d548f70c85fbaee9542bbf456</t>
-  </si>
-  <si>
-    <t>d0e18e725d3bf86c5b9d654f987c642e</t>
-  </si>
-  <si>
-    <t>e1f719f2225a8bcc9d9719821da2ab4f</t>
-  </si>
-  <si>
-    <t>d5974e94472a23bc0a2ac926651ededa</t>
-  </si>
-  <si>
-    <t>3cf9cd28c9712d5af8e6593fae33da4d</t>
-  </si>
-  <si>
-    <t>1098bd18ebcdb4d81be64f003812a7df</t>
-  </si>
-  <si>
-    <t>e35e4eba43659911e3428363039530c1</t>
-  </si>
-  <si>
-    <t>c3b59fdf3461bf49a376c41b9853ca79</t>
-  </si>
-  <si>
-    <t>7737f18167451942b5967fbcf5899513</t>
-  </si>
-  <si>
-    <t>7d91472ba78cc9131425c3c318db2598</t>
-  </si>
-  <si>
-    <t>63dc1402ca39998787cbdae5a156ca33</t>
-  </si>
-  <si>
-    <t>a71c7375e7afd943ab1a1f18d048e39b</t>
-  </si>
-  <si>
-    <t>8c38190d2ef6178d90ed8ede3fbd3f39</t>
-  </si>
-  <si>
-    <t>e827360e630368274bf208154f1ec7ff</t>
-  </si>
-  <si>
-    <t>99fa4dcc18cc9a6f15feae42341da50c</t>
-  </si>
-  <si>
-    <t>daba65eca5c66474fe434159a322c523</t>
-  </si>
-  <si>
-    <t>7e179be944325146c19ef78fba22d6ab</t>
-  </si>
-  <si>
-    <t>b17c4cb7b39bb93861eb43568e88495e</t>
-  </si>
-  <si>
-    <t>5f5aa608344578c31a446c6930d0ce75</t>
-  </si>
-  <si>
-    <t>c2fe28541135506cf43b7238bb7253c6</t>
-  </si>
-  <si>
-    <t>63f87f86eca97497107b431e14898c36</t>
-  </si>
-  <si>
-    <t>aed706f6e28e165da0d2e493120e548d</t>
-  </si>
-  <si>
-    <t>2865505d33fc9ec72ec4a2ee23898724</t>
-  </si>
-  <si>
-    <t>3dcfea92dcd2497aa151f05b7c442ec2</t>
-  </si>
-  <si>
-    <t>784166b8d878399c9b26ecb2543cfbe5</t>
-  </si>
-  <si>
-    <t>29855d42152c37b2c19186250ef3bde4</t>
-  </si>
-  <si>
-    <t>9ad7d6908d7b46827e7930ab43003219</t>
-  </si>
-  <si>
-    <t>4ee3f0ce24c2ac3e6437300f299ab155</t>
-  </si>
-  <si>
-    <t>4b244e140dd3c63bc401c0481920e1e3</t>
-  </si>
-  <si>
-    <t>9ec0315394024172291faddc8a53cf8e</t>
-  </si>
-  <si>
-    <t>40a307a579e110427400e34f2bd32333</t>
-  </si>
-  <si>
-    <t>fbbacc5cf0e6d932a1b4d84df5ba1e94</t>
-  </si>
-  <si>
-    <t>b92e46646da816501b36426797031c4b</t>
-  </si>
-  <si>
-    <t>c2c929653ab207e10045f4c84fe6068d</t>
-  </si>
-  <si>
-    <t>01facb0fc78ed72d02d763fd1e71ac32</t>
-  </si>
-  <si>
-    <t>b1d7e6c6f8d4c748190d1668acfddd46</t>
-  </si>
-  <si>
-    <t>d93ef9a763f886aa5e8191985b64daa7</t>
-  </si>
-  <si>
-    <t>a43812d27abfa3aa4ada0576a850b3b0</t>
-  </si>
-  <si>
-    <t>b8e270e9c1b171f38e2e6ebbe9c17a56</t>
-  </si>
-  <si>
-    <t>132179c5a93f716db7cd436ce481968f</t>
-  </si>
-  <si>
-    <t>83319e4133ac01783ea75a4fd73c0bf4</t>
-  </si>
-  <si>
-    <t>17163db422800fce7c50ba78ae0501ed</t>
-  </si>
-  <si>
-    <t>934ba3dd552d13453396bee65f01326f</t>
-  </si>
-  <si>
-    <t>ec8d9c01842a98eca91c14f8a7468f57</t>
-  </si>
-  <si>
-    <t>47bb7f1e57a3d7777f7e67be099b4f81</t>
-  </si>
-  <si>
-    <t>3195bbc38fcfa05159f6036e9ec4beab</t>
-  </si>
-  <si>
-    <t>67b1d4a6d2f8698c3e76faa7a1fdbe5a</t>
-  </si>
-  <si>
-    <t>b3f6b317eb8c9fb7942e07576259c699</t>
-  </si>
-  <si>
-    <t>8c35bc1348ef71b89e1abe69b896482f</t>
-  </si>
-  <si>
-    <t>2a3d6e4de9ef1bf4a9ad71be8e0110fc</t>
-  </si>
-  <si>
-    <t>53afe4e2d9a773155ed3857358adbfe0</t>
-  </si>
-  <si>
-    <t>a644698f9bd2c03bbc5de8068bb9de2d</t>
-  </si>
-  <si>
-    <t>4b3c2a7fb1fedab763d2ac55424a1e94</t>
-  </si>
-  <si>
-    <t>3271e2f4ee05a67ff9a898e595e17628</t>
-  </si>
-  <si>
-    <t>910ec5c56c72073135b37b1ed14f1e13</t>
-  </si>
-  <si>
-    <t>499f0a88d062ba408abfdb0013874ec1</t>
-  </si>
-  <si>
-    <t>919892f10ff33701803774c773984b45</t>
-  </si>
-  <si>
-    <t>c1f3999fa2233d8616526f54da4d7fde</t>
-  </si>
-  <si>
-    <t>7583a6adf600c319e13fb9dfe53f2ed6</t>
-  </si>
-  <si>
-    <t>bc1e799ac576eedbb66321c5f0a9efae</t>
-  </si>
-  <si>
-    <t>2db1865d71a88b1873f7a1811d080610</t>
-  </si>
-  <si>
-    <t>92f4df1ecf9aeb6e4e9d1d5dd37e76be</t>
-  </si>
-  <si>
-    <t>448767489d3e57dac9d2e71cca4453a8</t>
-  </si>
-  <si>
-    <t>56296420368a531f9fcc367877eef7d7</t>
-  </si>
-  <si>
-    <t>2a6b473ba63ad3b66f2b10af18ad7936</t>
-  </si>
-  <si>
-    <t>3d813b317fd23ebae1c5885677c7bdca</t>
-  </si>
-  <si>
-    <t>c54f24839c690660fafc6c2c432525c3</t>
-  </si>
-  <si>
     <t>Sample 27 (N)</t>
   </si>
   <si>
@@ -3025,6 +2449,582 @@
   </si>
   <si>
     <t>s48_o2</t>
+  </si>
+  <si>
+    <t>44750b8ba704cb930e2c81dbdcf627d7</t>
+  </si>
+  <si>
+    <t>c479d258d3f40c9a83f95045c4543e19</t>
+  </si>
+  <si>
+    <t>6794470d323e5fd55df3eed785ba4098</t>
+  </si>
+  <si>
+    <t>841f786462e2d08eb779f02b407688a9</t>
+  </si>
+  <si>
+    <t>b0e971d8f8d5cd4b83cdfe232af12d80</t>
+  </si>
+  <si>
+    <t>2e059042becc4198fd16a1b848dd21be</t>
+  </si>
+  <si>
+    <t>f6f49c36c2c0155a7c4f61fbbb1ea437</t>
+  </si>
+  <si>
+    <t>a08bb2561c5c88ef16d2d9222a87210d</t>
+  </si>
+  <si>
+    <t>ce737e7e6d5244e8aef3e374eb44d0dc</t>
+  </si>
+  <si>
+    <t>70e8b88025fb17f43eca4b98ea585986</t>
+  </si>
+  <si>
+    <t>a4ddf3d4f123b6ac992aa85ee8cf34e8</t>
+  </si>
+  <si>
+    <t>bf7fd409392a379c3e0a171cc71287a1</t>
+  </si>
+  <si>
+    <t>b5887e02d76fac480a122ddd35d73be8</t>
+  </si>
+  <si>
+    <t>3c4c9e8d707e6c63503020f6f0e490de</t>
+  </si>
+  <si>
+    <t>1932a98d77b211395a52b6e057580130</t>
+  </si>
+  <si>
+    <t>574a33bf77b2eeb0c470427bc800967d</t>
+  </si>
+  <si>
+    <t>de8145612f71fbbaade048ac3b403150</t>
+  </si>
+  <si>
+    <t>fa2e56ef9dc9a09a51b20938b4b3ed59</t>
+  </si>
+  <si>
+    <t>1730d951926e0045516ffb1c666566b5</t>
+  </si>
+  <si>
+    <t>a6b8f3a82e207346896e9418191d6335</t>
+  </si>
+  <si>
+    <t>e2e74e41866905ba2e035be0b75613df</t>
+  </si>
+  <si>
+    <t>cb04549ff0fa1516336fa7bf088ae57d</t>
+  </si>
+  <si>
+    <t>13c39a1b86532f2870932fd08f9dd31e</t>
+  </si>
+  <si>
+    <t>9d72aaa7707d2a47e7cf7975d0822e8e</t>
+  </si>
+  <si>
+    <t>c60333118094d528a575bd482ae5e3d7</t>
+  </si>
+  <si>
+    <t>119a6f7194b26a3418ca2539bdfc00ba</t>
+  </si>
+  <si>
+    <t>09669298b6502c5a8afc94130b4c33c3</t>
+  </si>
+  <si>
+    <t>902391e7a13d45eb8e6a1646bdfb1e4e</t>
+  </si>
+  <si>
+    <t>dc97724426e3b648593f5c7023fac3f5</t>
+  </si>
+  <si>
+    <t>00d5dacee092d92383b3faf8d561281f</t>
+  </si>
+  <si>
+    <t>ee2b13e37879cb5b882fa5b6af87de9f</t>
+  </si>
+  <si>
+    <t>be77886ee8cf9da9a4234e2ce340b1b8</t>
+  </si>
+  <si>
+    <t>2456ab48c4974e7baa9b526e2dc272e1</t>
+  </si>
+  <si>
+    <t>ebb77e509dfac7a9ec3ec1fa78ac659d</t>
+  </si>
+  <si>
+    <t>0981908aec1a1556faf4da8e62b198d0</t>
+  </si>
+  <si>
+    <t>4f73025253c9a53bc4758f34bbb0365c</t>
+  </si>
+  <si>
+    <t>69ead95e8ccafc10ea3611f9df5342f6</t>
+  </si>
+  <si>
+    <t>6f2a39e686262107f7db32de19cea417</t>
+  </si>
+  <si>
+    <t>5f8fe2a895e6e62d217836b42c106440</t>
+  </si>
+  <si>
+    <t>f96cea19b7d684754d6bccda9ee98c90</t>
+  </si>
+  <si>
+    <t>50dce2af6c90b4ad520a6fb5de800105</t>
+  </si>
+  <si>
+    <t>78db5b5fe6d5cdca40aeb6b450675fae</t>
+  </si>
+  <si>
+    <t>1aece5e3f81735e013f489482bd7729f</t>
+  </si>
+  <si>
+    <t>d8fc9b1ae5c371324429a31ace1b4de5</t>
+  </si>
+  <si>
+    <t>b53fe19fbab22532dda1253536fcce80</t>
+  </si>
+  <si>
+    <t>e561ba90b005e50559f79baca357458e</t>
+  </si>
+  <si>
+    <t>e28f6f671f3c1dee186ab972bdeac9fe</t>
+  </si>
+  <si>
+    <t>284294576973fc47525ca4f10ee8ba1e</t>
+  </si>
+  <si>
+    <t>ffee957079861ac500349b6fdae64532</t>
+  </si>
+  <si>
+    <t>a547aec3116ffd37ef45a1b852383524</t>
+  </si>
+  <si>
+    <t>23ff292eaf865b3b4f1a6abbe29f5229</t>
+  </si>
+  <si>
+    <t>27ec0cd515e9988a11c5448279deebbf</t>
+  </si>
+  <si>
+    <t>63f89501478ed6eb7ee067f46609dce2</t>
+  </si>
+  <si>
+    <t>596ba1e02e7d8eba54622bf9887648dc</t>
+  </si>
+  <si>
+    <t>2800a7202f1dcce32292343759c20862</t>
+  </si>
+  <si>
+    <t>6d582221671b6d84a757ec5d3b8d94ce</t>
+  </si>
+  <si>
+    <t>03a0691a0a872052be0467c4b3cbfcfc</t>
+  </si>
+  <si>
+    <t>0580069db1f6140d61e7041f199804f1</t>
+  </si>
+  <si>
+    <t>8a8225b99bdd83686d594f3b55a4aac4</t>
+  </si>
+  <si>
+    <t>94f4d830a982d5ddff0d058beaf48bf1</t>
+  </si>
+  <si>
+    <t>9459776b8b9590f8115784cc9cd3795b</t>
+  </si>
+  <si>
+    <t>22f4878c0f52e72c13c2f8e9c0510530</t>
+  </si>
+  <si>
+    <t>24975a5a49a1bace79524f39d1c2c0e0</t>
+  </si>
+  <si>
+    <t>3b56ab8225e9d41946a823851779df44</t>
+  </si>
+  <si>
+    <t>db859a790f7ca2c7c5eb4ac626ed2892</t>
+  </si>
+  <si>
+    <t>9e66caa6b0c22e8a9c1128d109d8ff35</t>
+  </si>
+  <si>
+    <t>56c52429681376ed8a98326b31bed983</t>
+  </si>
+  <si>
+    <t>5ac6de54e997d89c73d9b1e896f2ead2</t>
+  </si>
+  <si>
+    <t>93b43535d3f9ea5adf0c73e4d04bd483</t>
+  </si>
+  <si>
+    <t>dd9132a60c9c2184ef701f525459a9f3</t>
+  </si>
+  <si>
+    <t>43841f2ca643c5a4ac331bf8a0ca9629</t>
+  </si>
+  <si>
+    <t>3aeb484f47faf3aa1278c70dbf0755c4</t>
+  </si>
+  <si>
+    <t>9fa96c98ed0a532ef05302c0846b11e7</t>
+  </si>
+  <si>
+    <t>ad17ad99a1d28d0ca6f7ef457cf9405c</t>
+  </si>
+  <si>
+    <t>546f7575c0b34e98a892271a2d427cab</t>
+  </si>
+  <si>
+    <t>c45462ac1e60a07b9f7742951e599703</t>
+  </si>
+  <si>
+    <t>21d88cb8b0a40ac8709e04dfc9d5b614</t>
+  </si>
+  <si>
+    <t>d670c5e420507551549065a4629e2353</t>
+  </si>
+  <si>
+    <t>f09df39f7c418009f749b0a653b50c87</t>
+  </si>
+  <si>
+    <t>b59c33f4d28b1e00a0db5c5746c9cea4</t>
+  </si>
+  <si>
+    <t>2a92d9ed46f4dce3d6d94e1c87b17758</t>
+  </si>
+  <si>
+    <t>6314210964a483bd2407266fc2d7b8b0</t>
+  </si>
+  <si>
+    <t>53e7296e3faee38f082c4db1e14b476e</t>
+  </si>
+  <si>
+    <t>de29d74c1088f3b5d4d3611dc7472a3b</t>
+  </si>
+  <si>
+    <t>7f74c877e6d4dcec664556e157dd79a6</t>
+  </si>
+  <si>
+    <t>81fdc6bf8a577e652caf78fc06a736e4</t>
+  </si>
+  <si>
+    <t>3e1e4291dd8d4f6fdf8d8b6caf024114</t>
+  </si>
+  <si>
+    <t>2bbca03c0474d7428cfb440ad505382a</t>
+  </si>
+  <si>
+    <t>cd8aad5415048c610a16e3907830c5b7</t>
+  </si>
+  <si>
+    <t>154034b57aca8ce705d640e2150a596a</t>
+  </si>
+  <si>
+    <t>4af6fe26894893db019e3c30c1399443</t>
+  </si>
+  <si>
+    <t>e5a97a7d76225b61f473d49edbca16a1</t>
+  </si>
+  <si>
+    <t>e3e43bd7f610c40a93fe93a8f75a4c86</t>
+  </si>
+  <si>
+    <t>5848e8d4eee77a5adad80e01045f95d2</t>
+  </si>
+  <si>
+    <t>1385d9d51b3ec65ec2041ebed59c03f3</t>
+  </si>
+  <si>
+    <t>533ae1827bc49049764fea24688b57fc</t>
+  </si>
+  <si>
+    <t>027c5b8845f80eca4d5bd8312badf662</t>
+  </si>
+  <si>
+    <t>4a4b1138a2c1bfc244d5e9fbc00a320c</t>
+  </si>
+  <si>
+    <t>1df3e8fd951b3e441d622037e6d1581b</t>
+  </si>
+  <si>
+    <t>a4eb26988b9a4eb1a7427680e3a0b48e</t>
+  </si>
+  <si>
+    <t>1c5e171e3fc115156926d752ac46a4aa</t>
+  </si>
+  <si>
+    <t>4dfce48627b8747059917ec6c6db3a48</t>
+  </si>
+  <si>
+    <t>87949a0d7ebe81b7bedd974b12cc90c6</t>
+  </si>
+  <si>
+    <t>5285af2fbb231b6c77b3305da8cc4f29</t>
+  </si>
+  <si>
+    <t>4afb3440bac5a06cd277c5372da8c31c</t>
+  </si>
+  <si>
+    <t>29da529fbabb4c7408fa95558e2d2161</t>
+  </si>
+  <si>
+    <t>cc60c8735b861e2b9bbf4033e7cf0b34</t>
+  </si>
+  <si>
+    <t>d07bf1e8ac79eb475330deb97826c408</t>
+  </si>
+  <si>
+    <t>7d4281b5e97c79cc395994990c963241</t>
+  </si>
+  <si>
+    <t>4396ee407a28dbea521933287287dabb</t>
+  </si>
+  <si>
+    <t>3252ae041f2d5e136ce62946f06ec432</t>
+  </si>
+  <si>
+    <t>da9d2574658c8330c0844fad7e05117a</t>
+  </si>
+  <si>
+    <t>873174feb6ac73ef57be80439ef82a72</t>
+  </si>
+  <si>
+    <t>42c4fbc318b6a41f0ed4c598048ffb0b</t>
+  </si>
+  <si>
+    <t>817e7fbdfd04f84ede851bc43ee51ed4</t>
+  </si>
+  <si>
+    <t>215f09b1db05ce9afe754b40689b7a04</t>
+  </si>
+  <si>
+    <t>2a343e2bb2a864be9af2e76479cda46e</t>
+  </si>
+  <si>
+    <t>3aa8c5d3cc09e6355513800bdb959c70</t>
+  </si>
+  <si>
+    <t>bad4f2ef2b0916faa776e9c9228690d7</t>
+  </si>
+  <si>
+    <t>b371fed53523d0b5ba6b4840754d55ca</t>
+  </si>
+  <si>
+    <t>56cdfb6838a61b26f4dce3f2b457c1a1</t>
+  </si>
+  <si>
+    <t>d6d940d1b6261f54d11f9f54917cdf06</t>
+  </si>
+  <si>
+    <t>6613e5b8ff6bb91c583154014b27f695</t>
+  </si>
+  <si>
+    <t>01eadeb5fa5044a264cf363d75437cf2</t>
+  </si>
+  <si>
+    <t>7b2d4dfe345333f51cce94739e5fde6e</t>
+  </si>
+  <si>
+    <t>5249ef1dfbd05b430cd75ee77051c552</t>
+  </si>
+  <si>
+    <t>2127dfba9402de802e9e6431c85676de</t>
+  </si>
+  <si>
+    <t>60bb6981e223dcc6b0332441843ddfb1</t>
+  </si>
+  <si>
+    <t>0b65fb24623db5fbc1043799fb6a8854</t>
+  </si>
+  <si>
+    <t>bc73e11bf4050933f12281872636413f</t>
+  </si>
+  <si>
+    <t>fdcc9be27d2aef8fe3f9c060c8565b0f</t>
+  </si>
+  <si>
+    <t>fafdd4842b07aa5f7da8c8f07806927a</t>
+  </si>
+  <si>
+    <t>fc5d7fbbda38b5699b8db10d54c27959</t>
+  </si>
+  <si>
+    <t>f0a80ab62a11e3697b21d10973bfbcd8</t>
+  </si>
+  <si>
+    <t>e71a269afa254741612854c1475b03a9</t>
+  </si>
+  <si>
+    <t>365b49fb50ee92d02dfa423f5b83292c</t>
+  </si>
+  <si>
+    <t>642449d1a267006def84ba9271dabf0a</t>
+  </si>
+  <si>
+    <t>d5ed53260dcab07eb481d923ecba1c5d</t>
+  </si>
+  <si>
+    <t>0ed1b9831ff5d4bba05a391e894c441b</t>
+  </si>
+  <si>
+    <t>dabe2f3d556c48fa5e67bd79039cd2ac</t>
+  </si>
+  <si>
+    <t>093b77855ac32ae08a034a7c15e0027a</t>
+  </si>
+  <si>
+    <t>c1465d852453b92ecca0611aeea200b3</t>
+  </si>
+  <si>
+    <t>3e8a03b302a12fd815c35a4b419093b4</t>
+  </si>
+  <si>
+    <t>c4cc422202240143d3b770401dec621b</t>
+  </si>
+  <si>
+    <t>54c9bd05712d52d15d67a58bae398f72</t>
+  </si>
+  <si>
+    <t>dc519f9b371aef0711d6aa6b05dd4798</t>
+  </si>
+  <si>
+    <t>3d88c82ab9fb5e6d1daf6d980a7962b9</t>
+  </si>
+  <si>
+    <t>15b5fb5a5e4ed95a61791d0f1dc6a023</t>
+  </si>
+  <si>
+    <t>14c8a520ee5deb9fc9ed8bd329599ae7</t>
+  </si>
+  <si>
+    <t>f7fb1aea19d370ed632feca40a1299a2</t>
+  </si>
+  <si>
+    <t>52f89ea41bec90d9390c7115640ab5fd</t>
+  </si>
+  <si>
+    <t>ff3d6f73b9988b63bc7639da9c50bb26</t>
+  </si>
+  <si>
+    <t>066facfd946330f4c5385badad0fc5d5</t>
+  </si>
+  <si>
+    <t>b0a985ca2811477565a7f3388e589a37</t>
+  </si>
+  <si>
+    <t>93413b6bee69001c3fd9ae4d9d59e3ee</t>
+  </si>
+  <si>
+    <t>a469cb4a3c0267506875bc46bb8a30e6</t>
+  </si>
+  <si>
+    <t>3f9793d28374436870f579776882deb8</t>
+  </si>
+  <si>
+    <t>5535f2d2ffac9705bb6d901776492a6d</t>
+  </si>
+  <si>
+    <t>eb116ad10abc6e54db20d45473d08db1</t>
+  </si>
+  <si>
+    <t>da96a9002b8ae5bb8e60b9815101db90</t>
+  </si>
+  <si>
+    <t>151352ae541522ad75c5bae6f89f4c47</t>
+  </si>
+  <si>
+    <t>46dda943579646314ad30ddb441ad68a</t>
+  </si>
+  <si>
+    <t>9895ee4e1e7d12890b9ccbdee785f64d</t>
+  </si>
+  <si>
+    <t>d657e2146c95f54b43ef4b3d0a375b80</t>
+  </si>
+  <si>
+    <t>e1765b589831d7ffb98c04e87f587715</t>
+  </si>
+  <si>
+    <t>5c39e8ac37fc9f8d44a5a92cbd91e7b8</t>
+  </si>
+  <si>
+    <t>b27d771c6476fd7e4b6b85a1bcec8e94</t>
+  </si>
+  <si>
+    <t>4c5e02dd1dc72e693b9e93888bf467d6</t>
+  </si>
+  <si>
+    <t>524334e709873644ab32e93fe2bfb256</t>
+  </si>
+  <si>
+    <t>7388841f14ee9731b55e02515eaad4f2</t>
+  </si>
+  <si>
+    <t>2bf5e3f582ff4ec8859fd026c1a9f125</t>
+  </si>
+  <si>
+    <t>2fdb80071978cc1a670ed3a5282752de</t>
+  </si>
+  <si>
+    <t>f487e3ecfbb90cee30953bdce9faa95e</t>
+  </si>
+  <si>
+    <t>3718efcac7bd47b926b5e2ad2641332d</t>
+  </si>
+  <si>
+    <t>9310fa8e6a2f3c259de26f458516355d</t>
+  </si>
+  <si>
+    <t>4abf2895148d901d38a80b3027b1784e</t>
+  </si>
+  <si>
+    <t>789dacfffb51355048f8ea45d1e945c4</t>
+  </si>
+  <si>
+    <t>b300f00e688afe4e8e6392413a33a625</t>
+  </si>
+  <si>
+    <t>3e1c0a3e7ad33b36dc718a83678163de</t>
+  </si>
+  <si>
+    <t>f37501c4cf66aa1394c7452e8a750af1</t>
+  </si>
+  <si>
+    <t>c31219e60e51eccaa558ea1b9cc05233</t>
+  </si>
+  <si>
+    <t>475c0b906fcc015b6dc3c0b570790e91</t>
+  </si>
+  <si>
+    <t>fbe3b9774e1d6659bd2a2e780b2777ba</t>
+  </si>
+  <si>
+    <t>62b61ed01f28fcc5e48736082b9628ca</t>
+  </si>
+  <si>
+    <t>8d4c6c5192749d6265c03b6e666bfb7d</t>
+  </si>
+  <si>
+    <t>4ddffc283a5121dce639d946e7964912</t>
+  </si>
+  <si>
+    <t>7fd4230abbb48cb845c1ab7e7ce72a8e</t>
+  </si>
+  <si>
+    <t>dfc2a12cea690d94f0b7e20a51a0238f</t>
+  </si>
+  <si>
+    <t>14025dd7eb31659e52b7edc017ca0894</t>
+  </si>
+  <si>
+    <t>d3d948b7e7846fdd8acb2d1d4e6c60bd</t>
+  </si>
+  <si>
+    <t>792af10c8e2e6325543c8c0d123231a9</t>
+  </si>
+  <si>
+    <t>e097bbcedaf10afc00b4c090ca02e5ef</t>
   </si>
 </sst>
 </file>
@@ -3663,9 +3663,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3702,6 +3699,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="291">
@@ -4389,9 +4389,9 @@
   <dimension ref="A1:BQ147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4506,24 +4506,24 @@
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="10"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AY1" s="58" t="s">
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AY1" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BF1" s="58" t="s">
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BF1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="58"/>
+      <c r="BG1" s="79"/>
       <c r="BI1" s="8" t="s">
         <v>59</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>485</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>629</v>
+        <v>533</v>
       </c>
       <c r="R3" t="s">
         <v>40</v>
@@ -4838,7 +4838,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP3" t="s">
         <v>75</v>
@@ -4924,7 +4924,7 @@
         <v>486</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>630</v>
+        <v>534</v>
       </c>
       <c r="R4" t="s">
         <v>40</v>
@@ -4990,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP4" t="s">
         <v>75</v>
@@ -5076,7 +5076,7 @@
         <v>487</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>631</v>
+        <v>535</v>
       </c>
       <c r="R5" t="s">
         <v>40</v>
@@ -5142,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP5" t="s">
         <v>75</v>
@@ -5228,7 +5228,7 @@
         <v>488</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>632</v>
+        <v>536</v>
       </c>
       <c r="R6" t="s">
         <v>40</v>
@@ -5294,7 +5294,7 @@
         <v>4</v>
       </c>
       <c r="AO6" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP6" t="s">
         <v>75</v>
@@ -5380,7 +5380,7 @@
         <v>489</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>633</v>
+        <v>537</v>
       </c>
       <c r="R7" t="s">
         <v>40</v>
@@ -5446,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP7" t="s">
         <v>75</v>
@@ -5532,7 +5532,7 @@
         <v>490</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>634</v>
+        <v>538</v>
       </c>
       <c r="R8" t="s">
         <v>40</v>
@@ -5598,7 +5598,7 @@
         <v>4</v>
       </c>
       <c r="AO8" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP8" t="s">
         <v>75</v>
@@ -5684,7 +5684,7 @@
         <v>491</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>635</v>
+        <v>539</v>
       </c>
       <c r="R9" t="s">
         <v>40</v>
@@ -5750,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="AO9" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP9" t="s">
         <v>75</v>
@@ -5836,7 +5836,7 @@
         <v>492</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>636</v>
+        <v>540</v>
       </c>
       <c r="R10" t="s">
         <v>40</v>
@@ -5902,7 +5902,7 @@
         <v>4</v>
       </c>
       <c r="AO10" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP10" t="s">
         <v>75</v>
@@ -5987,8 +5987,8 @@
       <c r="P11" s="53" t="s">
         <v>493</v>
       </c>
-      <c r="Q11" s="59" t="s">
-        <v>637</v>
+      <c r="Q11" s="58" t="s">
+        <v>541</v>
       </c>
       <c r="R11" t="s">
         <v>40</v>
@@ -6054,7 +6054,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP11" t="s">
         <v>75</v>
@@ -6140,7 +6140,7 @@
         <v>494</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -6206,7 +6206,7 @@
         <v>4</v>
       </c>
       <c r="AO12" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP12" t="s">
         <v>75</v>
@@ -6292,7 +6292,7 @@
         <v>495</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>639</v>
+        <v>543</v>
       </c>
       <c r="R13" t="s">
         <v>40</v>
@@ -6358,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="AO13" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP13" t="s">
         <v>75</v>
@@ -6444,7 +6444,7 @@
         <v>496</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>640</v>
+        <v>544</v>
       </c>
       <c r="R14" t="s">
         <v>40</v>
@@ -6510,7 +6510,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP14" t="s">
         <v>75</v>
@@ -6596,7 +6596,7 @@
         <v>497</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>641</v>
+        <v>545</v>
       </c>
       <c r="R15" t="s">
         <v>40</v>
@@ -6662,7 +6662,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP15" t="s">
         <v>75</v>
@@ -6748,7 +6748,7 @@
         <v>498</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>642</v>
+        <v>546</v>
       </c>
       <c r="R16" t="s">
         <v>40</v>
@@ -6814,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="AO16" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP16" t="s">
         <v>75</v>
@@ -6900,7 +6900,7 @@
         <v>499</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>643</v>
+        <v>547</v>
       </c>
       <c r="R17" t="s">
         <v>40</v>
@@ -6966,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="AO17" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP17" t="s">
         <v>75</v>
@@ -7052,7 +7052,7 @@
         <v>500</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>644</v>
+        <v>548</v>
       </c>
       <c r="R18" t="s">
         <v>40</v>
@@ -7118,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="AO18" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP18" t="s">
         <v>75</v>
@@ -7204,7 +7204,7 @@
         <v>501</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>645</v>
+        <v>549</v>
       </c>
       <c r="R19" t="s">
         <v>40</v>
@@ -7270,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="AO19" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP19" t="s">
         <v>75</v>
@@ -7356,7 +7356,7 @@
         <v>502</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>646</v>
+        <v>550</v>
       </c>
       <c r="R20" t="s">
         <v>40</v>
@@ -7422,7 +7422,7 @@
         <v>4</v>
       </c>
       <c r="AO20" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP20" t="s">
         <v>75</v>
@@ -7508,7 +7508,7 @@
         <v>503</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="R21" t="s">
         <v>40</v>
@@ -7574,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="AO21" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP21" t="s">
         <v>75</v>
@@ -7660,7 +7660,7 @@
         <v>504</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>648</v>
+        <v>552</v>
       </c>
       <c r="R22" t="s">
         <v>40</v>
@@ -7726,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="AO22" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP22" t="s">
         <v>75</v>
@@ -7811,14 +7811,14 @@
       <c r="P23" s="53" t="s">
         <v>505</v>
       </c>
-      <c r="Q23" s="59" t="s">
-        <v>649</v>
+      <c r="Q23" s="58" t="s">
+        <v>553</v>
       </c>
       <c r="R23" t="s">
         <v>40</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>773</v>
+        <v>581</v>
       </c>
       <c r="T23" s="16" t="s">
         <v>79</v>
@@ -7878,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP23" t="s">
         <v>75</v>
@@ -7964,7 +7964,7 @@
         <v>506</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>650</v>
+        <v>554</v>
       </c>
       <c r="R24" t="s">
         <v>40</v>
@@ -8030,7 +8030,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP24" t="s">
         <v>75</v>
@@ -8116,7 +8116,7 @@
         <v>507</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>651</v>
+        <v>555</v>
       </c>
       <c r="R25" t="s">
         <v>40</v>
@@ -8182,7 +8182,7 @@
         <v>4</v>
       </c>
       <c r="AO25" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP25" t="s">
         <v>75</v>
@@ -8268,7 +8268,7 @@
         <v>508</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>652</v>
+        <v>556</v>
       </c>
       <c r="R26" t="s">
         <v>40</v>
@@ -8334,7 +8334,7 @@
         <v>4</v>
       </c>
       <c r="AO26" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP26" t="s">
         <v>75</v>
@@ -8420,7 +8420,7 @@
         <v>509</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>653</v>
+        <v>557</v>
       </c>
       <c r="R27" t="s">
         <v>40</v>
@@ -8486,7 +8486,7 @@
         <v>4</v>
       </c>
       <c r="AO27" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP27" t="s">
         <v>75</v>
@@ -8572,7 +8572,7 @@
         <v>510</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>654</v>
+        <v>558</v>
       </c>
       <c r="R28" t="s">
         <v>40</v>
@@ -8638,7 +8638,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP28" t="s">
         <v>75</v>
@@ -8720,11 +8720,11 @@
       <c r="O29" s="40">
         <v>141639</v>
       </c>
-      <c r="P29" s="61" t="s">
+      <c r="P29" s="60" t="s">
         <v>511</v>
       </c>
-      <c r="Q29" s="59" t="s">
-        <v>655</v>
+      <c r="Q29" s="58" t="s">
+        <v>559</v>
       </c>
       <c r="R29" t="s">
         <v>40</v>
@@ -8790,7 +8790,7 @@
         <v>4</v>
       </c>
       <c r="AO29" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP29" t="s">
         <v>75</v>
@@ -8876,7 +8876,7 @@
         <v>512</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>656</v>
+        <v>560</v>
       </c>
       <c r="R30" t="s">
         <v>40</v>
@@ -8942,7 +8942,7 @@
         <v>4</v>
       </c>
       <c r="AO30" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP30" t="s">
         <v>75</v>
@@ -9028,7 +9028,7 @@
         <v>513</v>
       </c>
       <c r="Q31" s="19" t="s">
-        <v>657</v>
+        <v>561</v>
       </c>
       <c r="R31" t="s">
         <v>40</v>
@@ -9094,7 +9094,7 @@
         <v>4</v>
       </c>
       <c r="AO31" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP31" t="s">
         <v>75</v>
@@ -9180,7 +9180,7 @@
         <v>514</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>658</v>
+        <v>562</v>
       </c>
       <c r="R32" t="s">
         <v>40</v>
@@ -9246,7 +9246,7 @@
         <v>4</v>
       </c>
       <c r="AO32" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP32" t="s">
         <v>75</v>
@@ -9332,7 +9332,7 @@
         <v>515</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>659</v>
+        <v>563</v>
       </c>
       <c r="R33" t="s">
         <v>40</v>
@@ -9398,7 +9398,7 @@
         <v>4</v>
       </c>
       <c r="AO33" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP33" t="s">
         <v>75</v>
@@ -9484,7 +9484,7 @@
         <v>516</v>
       </c>
       <c r="Q34" s="19" t="s">
-        <v>660</v>
+        <v>564</v>
       </c>
       <c r="R34" t="s">
         <v>40</v>
@@ -9550,7 +9550,7 @@
         <v>4</v>
       </c>
       <c r="AO34" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP34" t="s">
         <v>75</v>
@@ -9636,7 +9636,7 @@
         <v>517</v>
       </c>
       <c r="Q35" s="19" t="s">
-        <v>661</v>
+        <v>565</v>
       </c>
       <c r="R35" t="s">
         <v>40</v>
@@ -9702,7 +9702,7 @@
         <v>4</v>
       </c>
       <c r="AO35" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP35" t="s">
         <v>75</v>
@@ -9787,8 +9787,8 @@
       <c r="P36" s="53" t="s">
         <v>518</v>
       </c>
-      <c r="Q36" s="59" t="s">
-        <v>662</v>
+      <c r="Q36" s="58" t="s">
+        <v>566</v>
       </c>
       <c r="R36" t="s">
         <v>40</v>
@@ -9854,7 +9854,7 @@
         <v>4</v>
       </c>
       <c r="AO36" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP36" t="s">
         <v>75</v>
@@ -9940,7 +9940,7 @@
         <v>519</v>
       </c>
       <c r="Q37" s="19" t="s">
-        <v>663</v>
+        <v>567</v>
       </c>
       <c r="R37" t="s">
         <v>40</v>
@@ -10006,7 +10006,7 @@
         <v>4</v>
       </c>
       <c r="AO37" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP37" t="s">
         <v>75</v>
@@ -10092,7 +10092,7 @@
         <v>520</v>
       </c>
       <c r="Q38" s="19" t="s">
-        <v>664</v>
+        <v>568</v>
       </c>
       <c r="R38" t="s">
         <v>40</v>
@@ -10158,7 +10158,7 @@
         <v>4</v>
       </c>
       <c r="AO38" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP38" t="s">
         <v>75</v>
@@ -10244,7 +10244,7 @@
         <v>521</v>
       </c>
       <c r="Q39" s="19" t="s">
-        <v>665</v>
+        <v>569</v>
       </c>
       <c r="R39" t="s">
         <v>40</v>
@@ -10310,7 +10310,7 @@
         <v>4</v>
       </c>
       <c r="AO39" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP39" t="s">
         <v>75</v>
@@ -10396,7 +10396,7 @@
         <v>522</v>
       </c>
       <c r="Q40" s="19" t="s">
-        <v>666</v>
+        <v>570</v>
       </c>
       <c r="R40" t="s">
         <v>40</v>
@@ -10462,7 +10462,7 @@
         <v>4</v>
       </c>
       <c r="AO40" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP40" t="s">
         <v>75</v>
@@ -10548,7 +10548,7 @@
         <v>523</v>
       </c>
       <c r="Q41" s="19" t="s">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="R41" t="s">
         <v>40</v>
@@ -10614,7 +10614,7 @@
         <v>4</v>
       </c>
       <c r="AO41" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP41" t="s">
         <v>75</v>
@@ -10697,7 +10697,7 @@
         <v>524</v>
       </c>
       <c r="Q42" t="s">
-        <v>668</v>
+        <v>572</v>
       </c>
       <c r="R42" t="s">
         <v>40</v>
@@ -10755,7 +10755,7 @@
         <v>4</v>
       </c>
       <c r="AO42" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP42" t="s">
         <v>75</v>
@@ -10824,7 +10824,7 @@
         <v>525</v>
       </c>
       <c r="Q43" t="s">
-        <v>669</v>
+        <v>573</v>
       </c>
       <c r="R43" t="s">
         <v>40</v>
@@ -10882,7 +10882,7 @@
         <v>4</v>
       </c>
       <c r="AO43" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP43" t="s">
         <v>75</v>
@@ -10951,7 +10951,7 @@
         <v>526</v>
       </c>
       <c r="Q44" t="s">
-        <v>670</v>
+        <v>574</v>
       </c>
       <c r="R44" t="s">
         <v>40</v>
@@ -11009,7 +11009,7 @@
         <v>4</v>
       </c>
       <c r="AO44" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP44" t="s">
         <v>75</v>
@@ -11078,7 +11078,7 @@
         <v>527</v>
       </c>
       <c r="Q45" t="s">
-        <v>671</v>
+        <v>575</v>
       </c>
       <c r="R45" t="s">
         <v>40</v>
@@ -11136,7 +11136,7 @@
         <v>4</v>
       </c>
       <c r="AO45" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP45" t="s">
         <v>75</v>
@@ -11205,7 +11205,7 @@
         <v>528</v>
       </c>
       <c r="Q46" t="s">
-        <v>672</v>
+        <v>576</v>
       </c>
       <c r="R46" t="s">
         <v>40</v>
@@ -11263,7 +11263,7 @@
         <v>4</v>
       </c>
       <c r="AO46" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP46" t="s">
         <v>75</v>
@@ -11332,7 +11332,7 @@
         <v>529</v>
       </c>
       <c r="Q47" t="s">
-        <v>673</v>
+        <v>577</v>
       </c>
       <c r="R47" t="s">
         <v>40</v>
@@ -11390,7 +11390,7 @@
         <v>4</v>
       </c>
       <c r="AO47" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP47" t="s">
         <v>75</v>
@@ -11455,11 +11455,11 @@
       <c r="O48" s="40">
         <v>184179</v>
       </c>
-      <c r="P48" s="60" t="s">
+      <c r="P48" s="59" t="s">
         <v>530</v>
       </c>
-      <c r="Q48" s="60" t="s">
-        <v>674</v>
+      <c r="Q48" s="59" t="s">
+        <v>578</v>
       </c>
       <c r="R48" t="s">
         <v>40</v>
@@ -11517,7 +11517,7 @@
         <v>4</v>
       </c>
       <c r="AO48" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP48" t="s">
         <v>75</v>
@@ -11586,7 +11586,7 @@
         <v>531</v>
       </c>
       <c r="Q49" t="s">
-        <v>675</v>
+        <v>579</v>
       </c>
       <c r="R49" t="s">
         <v>40</v>
@@ -11644,7 +11644,7 @@
         <v>4</v>
       </c>
       <c r="AO49" t="s">
-        <v>774</v>
+        <v>582</v>
       </c>
       <c r="AP49" t="s">
         <v>75</v>
@@ -11668,144 +11668,144 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:68" s="68" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
+    <row r="50" spans="1:68" s="67" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B50" s="63">
+      <c r="B50" s="62">
         <v>48</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="63" t="s">
         <v>434</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E50" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="62"/>
-      <c r="G50" s="66" t="s">
+      <c r="F50" s="61"/>
+      <c r="G50" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="66" t="s">
+      <c r="H50" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="I50" s="67" t="s">
+      <c r="I50" s="66" t="s">
         <v>482</v>
       </c>
-      <c r="J50" s="66" t="s">
+      <c r="J50" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="K50" s="66" t="s">
+      <c r="K50" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="L50" s="66" t="s">
+      <c r="L50" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="N50" s="69">
+      <c r="N50" s="68">
         <v>166566</v>
       </c>
-      <c r="O50" s="70">
+      <c r="O50" s="69">
         <v>166566</v>
       </c>
-      <c r="P50" s="68" t="s">
+      <c r="P50" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="Q50" s="68" t="s">
-        <v>676</v>
-      </c>
-      <c r="R50" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="S50" s="71" t="s">
+      <c r="Q50" s="67" t="s">
+        <v>580</v>
+      </c>
+      <c r="R50" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="S50" s="70" t="s">
         <v>481</v>
       </c>
-      <c r="T50" s="71" t="s">
+      <c r="T50" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="V50" s="72" t="s">
+      <c r="V50" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="W50" s="71" t="s">
+      <c r="W50" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="X50" s="73" t="s">
+      <c r="X50" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="Y50" s="72" t="s">
+      <c r="Y50" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="Z50" s="71" t="s">
+      <c r="Z50" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="AA50" s="73" t="s">
+      <c r="AA50" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AC50" s="74">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE50" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG50" s="76"/>
-      <c r="AH50" s="77"/>
-      <c r="AJ50" s="68" t="s">
+      <c r="AC50" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE50" s="73">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG50" s="75"/>
+      <c r="AH50" s="76"/>
+      <c r="AJ50" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AK50" s="68" t="s">
+      <c r="AK50" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AL50" s="68" t="s">
+      <c r="AL50" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="AM50" s="68" t="s">
+      <c r="AM50" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AN50" s="68" t="s">
+      <c r="AN50" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AO50" s="68" t="s">
-        <v>774</v>
-      </c>
-      <c r="AP50" s="68" t="s">
+      <c r="AO50" s="67" t="s">
+        <v>582</v>
+      </c>
+      <c r="AP50" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="AQ50" s="68">
+      <c r="AQ50" s="67">
         <v>301</v>
       </c>
-      <c r="AR50" s="68">
+      <c r="AR50" s="67">
         <v>301</v>
       </c>
-      <c r="AY50" s="78">
+      <c r="AY50" s="77">
         <v>35064</v>
       </c>
-      <c r="AZ50" s="62">
-        <v>0</v>
-      </c>
-      <c r="BA50" s="62">
-        <v>0</v>
-      </c>
-      <c r="BB50" s="68" t="s">
+      <c r="AZ50" s="61">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="61">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="BC50" s="71"/>
-      <c r="BD50" s="71"/>
-      <c r="BI50" s="79"/>
-      <c r="BJ50" s="79"/>
-      <c r="BK50" s="79"/>
-      <c r="BL50" s="79"/>
-      <c r="BM50" s="79"/>
-      <c r="BN50" s="79"/>
-      <c r="BO50" s="79"/>
-      <c r="BP50" s="79"/>
+      <c r="BC50" s="70"/>
+      <c r="BD50" s="70"/>
+      <c r="BI50" s="78"/>
+      <c r="BJ50" s="78"/>
+      <c r="BK50" s="78"/>
+      <c r="BL50" s="78"/>
+      <c r="BM50" s="78"/>
+      <c r="BN50" s="78"/>
+      <c r="BO50" s="78"/>
+      <c r="BP50" s="78"/>
     </row>
     <row r="51" spans="1:68" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
@@ -11819,7 +11819,7 @@
         <v>64</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>871</v>
+        <v>679</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>80</v>
@@ -11849,16 +11849,16 @@
         <v>485468</v>
       </c>
       <c r="P51" t="s">
-        <v>533</v>
+        <v>871</v>
       </c>
       <c r="Q51" t="s">
-        <v>677</v>
+        <v>775</v>
       </c>
       <c r="R51" t="s">
         <v>40</v>
       </c>
       <c r="S51" s="16" t="s">
-        <v>775</v>
+        <v>583</v>
       </c>
       <c r="T51" s="16" t="s">
         <v>375</v>
@@ -11946,7 +11946,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>872</v>
+        <v>680</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>80</v>
@@ -11976,16 +11976,16 @@
         <v>412535</v>
       </c>
       <c r="P52" t="s">
-        <v>534</v>
+        <v>872</v>
       </c>
       <c r="Q52" t="s">
-        <v>678</v>
+        <v>776</v>
       </c>
       <c r="R52" t="s">
         <v>40</v>
       </c>
       <c r="S52" s="16" t="s">
-        <v>776</v>
+        <v>584</v>
       </c>
       <c r="T52" s="16" t="s">
         <v>375</v>
@@ -12073,7 +12073,7 @@
         <v>64</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>873</v>
+        <v>681</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>80</v>
@@ -12103,16 +12103,16 @@
         <v>289163</v>
       </c>
       <c r="P53" t="s">
-        <v>535</v>
+        <v>873</v>
       </c>
       <c r="Q53" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
       <c r="R53" t="s">
         <v>40</v>
       </c>
       <c r="S53" s="16" t="s">
-        <v>777</v>
+        <v>585</v>
       </c>
       <c r="T53" s="16" t="s">
         <v>375</v>
@@ -12200,7 +12200,7 @@
         <v>64</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>874</v>
+        <v>682</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>80</v>
@@ -12230,16 +12230,16 @@
         <v>923763</v>
       </c>
       <c r="P54" t="s">
-        <v>536</v>
+        <v>874</v>
       </c>
       <c r="Q54" t="s">
-        <v>680</v>
+        <v>778</v>
       </c>
       <c r="R54" t="s">
         <v>40</v>
       </c>
       <c r="S54" s="16" t="s">
-        <v>778</v>
+        <v>586</v>
       </c>
       <c r="T54" s="16" t="s">
         <v>375</v>
@@ -12327,7 +12327,7 @@
         <v>64</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>875</v>
+        <v>683</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>80</v>
@@ -12357,16 +12357,16 @@
         <v>460065</v>
       </c>
       <c r="P55" t="s">
-        <v>537</v>
+        <v>875</v>
       </c>
       <c r="Q55" t="s">
-        <v>681</v>
+        <v>779</v>
       </c>
       <c r="R55" t="s">
         <v>40</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>779</v>
+        <v>587</v>
       </c>
       <c r="T55" s="16" t="s">
         <v>375</v>
@@ -12454,7 +12454,7 @@
         <v>64</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>876</v>
+        <v>684</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>80</v>
@@ -12484,16 +12484,16 @@
         <v>342806</v>
       </c>
       <c r="P56" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>682</v>
+        <v>876</v>
+      </c>
+      <c r="Q56" s="59" t="s">
+        <v>780</v>
       </c>
       <c r="R56" t="s">
         <v>40</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>780</v>
+        <v>588</v>
       </c>
       <c r="T56" s="16" t="s">
         <v>375</v>
@@ -12581,7 +12581,7 @@
         <v>64</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>877</v>
+        <v>685</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>80</v>
@@ -12611,16 +12611,16 @@
         <v>589116</v>
       </c>
       <c r="P57" t="s">
-        <v>539</v>
+        <v>877</v>
       </c>
       <c r="Q57" t="s">
-        <v>683</v>
+        <v>781</v>
       </c>
       <c r="R57" t="s">
         <v>40</v>
       </c>
       <c r="S57" s="16" t="s">
-        <v>781</v>
+        <v>589</v>
       </c>
       <c r="T57" s="16" t="s">
         <v>375</v>
@@ -12708,7 +12708,7 @@
         <v>64</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>878</v>
+        <v>686</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>80</v>
@@ -12738,16 +12738,16 @@
         <v>294101</v>
       </c>
       <c r="P58" t="s">
-        <v>540</v>
+        <v>878</v>
       </c>
       <c r="Q58" t="s">
-        <v>684</v>
+        <v>782</v>
       </c>
       <c r="R58" t="s">
         <v>40</v>
       </c>
       <c r="S58" s="16" t="s">
-        <v>782</v>
+        <v>590</v>
       </c>
       <c r="T58" s="16" t="s">
         <v>375</v>
@@ -12835,7 +12835,7 @@
         <v>64</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>879</v>
+        <v>687</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>80</v>
@@ -12865,16 +12865,16 @@
         <v>461722</v>
       </c>
       <c r="P59" t="s">
-        <v>541</v>
+        <v>879</v>
       </c>
       <c r="Q59" t="s">
-        <v>685</v>
+        <v>783</v>
       </c>
       <c r="R59" t="s">
         <v>40</v>
       </c>
       <c r="S59" s="16" t="s">
-        <v>783</v>
+        <v>591</v>
       </c>
       <c r="T59" s="16" t="s">
         <v>375</v>
@@ -12962,7 +12962,7 @@
         <v>64</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>880</v>
+        <v>688</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>80</v>
@@ -12992,16 +12992,16 @@
         <v>418382</v>
       </c>
       <c r="P60" t="s">
-        <v>542</v>
+        <v>880</v>
       </c>
       <c r="Q60" t="s">
-        <v>686</v>
+        <v>784</v>
       </c>
       <c r="R60" t="s">
         <v>40</v>
       </c>
       <c r="S60" s="16" t="s">
-        <v>784</v>
+        <v>592</v>
       </c>
       <c r="T60" s="16" t="s">
         <v>375</v>
@@ -13089,7 +13089,7 @@
         <v>64</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>881</v>
+        <v>689</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>80</v>
@@ -13119,16 +13119,16 @@
         <v>409809</v>
       </c>
       <c r="P61" t="s">
-        <v>543</v>
+        <v>881</v>
       </c>
       <c r="Q61" t="s">
-        <v>687</v>
+        <v>785</v>
       </c>
       <c r="R61" t="s">
         <v>40</v>
       </c>
       <c r="S61" s="16" t="s">
-        <v>785</v>
+        <v>593</v>
       </c>
       <c r="T61" s="16" t="s">
         <v>375</v>
@@ -13216,7 +13216,7 @@
         <v>64</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>882</v>
+        <v>690</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>80</v>
@@ -13246,16 +13246,16 @@
         <v>597041</v>
       </c>
       <c r="P62" t="s">
-        <v>544</v>
+        <v>882</v>
       </c>
       <c r="Q62" t="s">
-        <v>688</v>
+        <v>786</v>
       </c>
       <c r="R62" t="s">
         <v>40</v>
       </c>
       <c r="S62" s="16" t="s">
-        <v>786</v>
+        <v>594</v>
       </c>
       <c r="T62" s="16" t="s">
         <v>375</v>
@@ -13343,7 +13343,7 @@
         <v>64</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>883</v>
+        <v>691</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>80</v>
@@ -13373,16 +13373,16 @@
         <v>570978</v>
       </c>
       <c r="P63" t="s">
-        <v>545</v>
+        <v>883</v>
       </c>
       <c r="Q63" t="s">
-        <v>689</v>
+        <v>787</v>
       </c>
       <c r="R63" t="s">
         <v>40</v>
       </c>
       <c r="S63" s="16" t="s">
-        <v>787</v>
+        <v>595</v>
       </c>
       <c r="T63" s="16" t="s">
         <v>375</v>
@@ -13470,7 +13470,7 @@
         <v>64</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>884</v>
+        <v>692</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>80</v>
@@ -13500,16 +13500,16 @@
         <v>327115</v>
       </c>
       <c r="P64" t="s">
-        <v>546</v>
+        <v>884</v>
       </c>
       <c r="Q64" t="s">
-        <v>690</v>
+        <v>788</v>
       </c>
       <c r="R64" t="s">
         <v>40</v>
       </c>
       <c r="S64" s="16" t="s">
-        <v>788</v>
+        <v>596</v>
       </c>
       <c r="T64" s="16" t="s">
         <v>375</v>
@@ -13597,7 +13597,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>885</v>
+        <v>693</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>80</v>
@@ -13627,16 +13627,16 @@
         <v>551619</v>
       </c>
       <c r="P65" t="s">
-        <v>547</v>
+        <v>885</v>
       </c>
       <c r="Q65" t="s">
-        <v>691</v>
+        <v>789</v>
       </c>
       <c r="R65" t="s">
         <v>40</v>
       </c>
       <c r="S65" s="16" t="s">
-        <v>789</v>
+        <v>597</v>
       </c>
       <c r="T65" s="16" t="s">
         <v>375</v>
@@ -13723,7 +13723,7 @@
         <v>64</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>886</v>
+        <v>694</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>80</v>
@@ -13753,16 +13753,16 @@
         <v>209648</v>
       </c>
       <c r="P66" t="s">
-        <v>548</v>
+        <v>886</v>
       </c>
       <c r="Q66" t="s">
-        <v>692</v>
+        <v>790</v>
       </c>
       <c r="R66" t="s">
         <v>40</v>
       </c>
       <c r="S66" s="16" t="s">
-        <v>790</v>
+        <v>598</v>
       </c>
       <c r="T66" s="16" t="s">
         <v>375</v>
@@ -13849,7 +13849,7 @@
         <v>64</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>887</v>
+        <v>695</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>80</v>
@@ -13879,16 +13879,16 @@
         <v>561137</v>
       </c>
       <c r="P67" t="s">
-        <v>549</v>
+        <v>887</v>
       </c>
       <c r="Q67" t="s">
-        <v>693</v>
+        <v>791</v>
       </c>
       <c r="R67" t="s">
         <v>40</v>
       </c>
       <c r="S67" s="16" t="s">
-        <v>791</v>
+        <v>599</v>
       </c>
       <c r="T67" s="16" t="s">
         <v>375</v>
@@ -13975,7 +13975,7 @@
         <v>64</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>888</v>
+        <v>696</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>80</v>
@@ -14005,16 +14005,16 @@
         <v>392682</v>
       </c>
       <c r="P68" t="s">
-        <v>550</v>
+        <v>888</v>
       </c>
       <c r="Q68" t="s">
-        <v>694</v>
+        <v>792</v>
       </c>
       <c r="R68" t="s">
         <v>40</v>
       </c>
       <c r="S68" s="16" t="s">
-        <v>792</v>
+        <v>600</v>
       </c>
       <c r="T68" s="16" t="s">
         <v>375</v>
@@ -14101,7 +14101,7 @@
         <v>64</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>889</v>
+        <v>697</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>80</v>
@@ -14131,16 +14131,16 @@
         <v>426518</v>
       </c>
       <c r="P69" t="s">
-        <v>551</v>
+        <v>889</v>
       </c>
       <c r="Q69" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
       <c r="R69" t="s">
         <v>40</v>
       </c>
       <c r="S69" s="16" t="s">
-        <v>793</v>
+        <v>601</v>
       </c>
       <c r="T69" s="16" t="s">
         <v>375</v>
@@ -14227,7 +14227,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>890</v>
+        <v>698</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>80</v>
@@ -14257,16 +14257,16 @@
         <v>490925</v>
       </c>
       <c r="P70" t="s">
-        <v>552</v>
+        <v>890</v>
       </c>
       <c r="Q70" t="s">
-        <v>696</v>
+        <v>794</v>
       </c>
       <c r="R70" t="s">
         <v>40</v>
       </c>
       <c r="S70" s="16" t="s">
-        <v>794</v>
+        <v>602</v>
       </c>
       <c r="T70" s="16" t="s">
         <v>375</v>
@@ -14353,7 +14353,7 @@
         <v>64</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>891</v>
+        <v>699</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>80</v>
@@ -14383,16 +14383,16 @@
         <v>511654</v>
       </c>
       <c r="P71" t="s">
-        <v>553</v>
+        <v>891</v>
       </c>
       <c r="Q71" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="R71" t="s">
         <v>40</v>
       </c>
       <c r="S71" s="16" t="s">
-        <v>795</v>
+        <v>603</v>
       </c>
       <c r="T71" s="16" t="s">
         <v>375</v>
@@ -14479,7 +14479,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>892</v>
+        <v>700</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>80</v>
@@ -14509,16 +14509,16 @@
         <v>548886</v>
       </c>
       <c r="P72" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q72" s="60" t="s">
-        <v>698</v>
+        <v>892</v>
+      </c>
+      <c r="Q72" s="59" t="s">
+        <v>796</v>
       </c>
       <c r="R72" t="s">
         <v>40</v>
       </c>
       <c r="S72" s="16" t="s">
-        <v>796</v>
+        <v>604</v>
       </c>
       <c r="T72" s="16" t="s">
         <v>375</v>
@@ -14605,7 +14605,7 @@
         <v>64</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>893</v>
+        <v>701</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>80</v>
@@ -14635,16 +14635,16 @@
         <v>571313</v>
       </c>
       <c r="P73" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q73" s="60" t="s">
-        <v>699</v>
+        <v>893</v>
+      </c>
+      <c r="Q73" s="59" t="s">
+        <v>797</v>
       </c>
       <c r="R73" t="s">
         <v>40</v>
       </c>
       <c r="S73" s="16" t="s">
-        <v>797</v>
+        <v>605</v>
       </c>
       <c r="T73" s="16" t="s">
         <v>375</v>
@@ -14731,7 +14731,7 @@
         <v>64</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>894</v>
+        <v>702</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>80</v>
@@ -14761,16 +14761,16 @@
         <v>386079</v>
       </c>
       <c r="P74" t="s">
-        <v>556</v>
+        <v>894</v>
       </c>
       <c r="Q74" t="s">
-        <v>700</v>
+        <v>798</v>
       </c>
       <c r="R74" t="s">
         <v>40</v>
       </c>
       <c r="S74" s="16" t="s">
-        <v>798</v>
+        <v>606</v>
       </c>
       <c r="T74" s="16" t="s">
         <v>375</v>
@@ -14857,7 +14857,7 @@
         <v>64</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>895</v>
+        <v>703</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>80</v>
@@ -14887,16 +14887,16 @@
         <v>317619</v>
       </c>
       <c r="P75" t="s">
-        <v>557</v>
+        <v>895</v>
       </c>
       <c r="Q75" t="s">
-        <v>701</v>
+        <v>799</v>
       </c>
       <c r="R75" t="s">
         <v>40</v>
       </c>
       <c r="S75" s="16" t="s">
-        <v>799</v>
+        <v>607</v>
       </c>
       <c r="T75" s="16" t="s">
         <v>375</v>
@@ -14983,7 +14983,7 @@
         <v>64</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>896</v>
+        <v>704</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>80</v>
@@ -15013,16 +15013,16 @@
         <v>340413</v>
       </c>
       <c r="P76" t="s">
-        <v>558</v>
+        <v>896</v>
       </c>
       <c r="Q76" t="s">
-        <v>702</v>
+        <v>800</v>
       </c>
       <c r="R76" t="s">
         <v>40</v>
       </c>
       <c r="S76" s="16" t="s">
-        <v>800</v>
+        <v>608</v>
       </c>
       <c r="T76" s="16" t="s">
         <v>375</v>
@@ -15109,7 +15109,7 @@
         <v>64</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>897</v>
+        <v>705</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>80</v>
@@ -15139,16 +15139,16 @@
         <v>310387</v>
       </c>
       <c r="P77" t="s">
-        <v>559</v>
+        <v>897</v>
       </c>
       <c r="Q77" t="s">
-        <v>703</v>
+        <v>801</v>
       </c>
       <c r="R77" t="s">
         <v>40</v>
       </c>
       <c r="S77" s="16" t="s">
-        <v>801</v>
+        <v>609</v>
       </c>
       <c r="T77" s="16" t="s">
         <v>375</v>
@@ -15235,7 +15235,7 @@
         <v>64</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>898</v>
+        <v>706</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>80</v>
@@ -15265,16 +15265,16 @@
         <v>172974</v>
       </c>
       <c r="P78" t="s">
-        <v>560</v>
+        <v>898</v>
       </c>
       <c r="Q78" t="s">
-        <v>704</v>
+        <v>802</v>
       </c>
       <c r="R78" t="s">
         <v>40</v>
       </c>
       <c r="S78" s="16" t="s">
-        <v>802</v>
+        <v>610</v>
       </c>
       <c r="T78" s="16" t="s">
         <v>375</v>
@@ -15361,7 +15361,7 @@
         <v>64</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>899</v>
+        <v>707</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>80</v>
@@ -15391,16 +15391,16 @@
         <v>359926</v>
       </c>
       <c r="P79" t="s">
-        <v>561</v>
+        <v>899</v>
       </c>
       <c r="Q79" t="s">
-        <v>705</v>
+        <v>803</v>
       </c>
       <c r="R79" t="s">
         <v>40</v>
       </c>
       <c r="S79" s="16" t="s">
-        <v>803</v>
+        <v>611</v>
       </c>
       <c r="T79" s="16" t="s">
         <v>375</v>
@@ -15487,7 +15487,7 @@
         <v>64</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>900</v>
+        <v>708</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>80</v>
@@ -15517,16 +15517,16 @@
         <v>378018</v>
       </c>
       <c r="P80" t="s">
-        <v>562</v>
+        <v>900</v>
       </c>
       <c r="Q80" t="s">
-        <v>706</v>
+        <v>804</v>
       </c>
       <c r="R80" t="s">
         <v>40</v>
       </c>
       <c r="S80" s="16" t="s">
-        <v>804</v>
+        <v>612</v>
       </c>
       <c r="T80" s="16" t="s">
         <v>375</v>
@@ -15613,7 +15613,7 @@
         <v>64</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>901</v>
+        <v>709</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>80</v>
@@ -15643,16 +15643,16 @@
         <v>349714</v>
       </c>
       <c r="P81" t="s">
-        <v>563</v>
+        <v>901</v>
       </c>
       <c r="Q81" t="s">
-        <v>707</v>
+        <v>805</v>
       </c>
       <c r="R81" t="s">
         <v>40</v>
       </c>
       <c r="S81" s="16" t="s">
-        <v>805</v>
+        <v>613</v>
       </c>
       <c r="T81" s="16" t="s">
         <v>375</v>
@@ -15739,7 +15739,7 @@
         <v>64</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>902</v>
+        <v>710</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>80</v>
@@ -15769,16 +15769,16 @@
         <v>279226</v>
       </c>
       <c r="P82" t="s">
-        <v>564</v>
+        <v>902</v>
       </c>
       <c r="Q82" t="s">
-        <v>708</v>
+        <v>806</v>
       </c>
       <c r="R82" t="s">
         <v>40</v>
       </c>
       <c r="S82" s="16" t="s">
-        <v>806</v>
+        <v>614</v>
       </c>
       <c r="T82" s="16" t="s">
         <v>375</v>
@@ -15865,7 +15865,7 @@
         <v>64</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>903</v>
+        <v>711</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>80</v>
@@ -15895,16 +15895,16 @@
         <v>275049</v>
       </c>
       <c r="P83" t="s">
-        <v>565</v>
+        <v>903</v>
       </c>
       <c r="Q83" t="s">
-        <v>709</v>
+        <v>807</v>
       </c>
       <c r="R83" t="s">
         <v>40</v>
       </c>
       <c r="S83" s="16" t="s">
-        <v>807</v>
+        <v>615</v>
       </c>
       <c r="T83" s="16" t="s">
         <v>375</v>
@@ -15991,7 +15991,7 @@
         <v>64</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>904</v>
+        <v>712</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>80</v>
@@ -16021,16 +16021,16 @@
         <v>168402</v>
       </c>
       <c r="P84" t="s">
-        <v>566</v>
+        <v>904</v>
       </c>
       <c r="Q84" t="s">
-        <v>710</v>
+        <v>808</v>
       </c>
       <c r="R84" t="s">
         <v>40</v>
       </c>
       <c r="S84" s="16" t="s">
-        <v>808</v>
+        <v>616</v>
       </c>
       <c r="T84" s="16" t="s">
         <v>375</v>
@@ -16117,7 +16117,7 @@
         <v>64</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>905</v>
+        <v>713</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>80</v>
@@ -16147,16 +16147,16 @@
         <v>224497</v>
       </c>
       <c r="P85" t="s">
-        <v>567</v>
+        <v>905</v>
       </c>
       <c r="Q85" t="s">
-        <v>711</v>
+        <v>809</v>
       </c>
       <c r="R85" t="s">
         <v>40</v>
       </c>
       <c r="S85" s="16" t="s">
-        <v>809</v>
+        <v>617</v>
       </c>
       <c r="T85" s="16" t="s">
         <v>375</v>
@@ -16243,7 +16243,7 @@
         <v>64</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>906</v>
+        <v>714</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>80</v>
@@ -16273,16 +16273,16 @@
         <v>328418</v>
       </c>
       <c r="P86" t="s">
-        <v>568</v>
+        <v>906</v>
       </c>
       <c r="Q86" t="s">
-        <v>712</v>
+        <v>810</v>
       </c>
       <c r="R86" t="s">
         <v>40</v>
       </c>
       <c r="S86" s="16" t="s">
-        <v>810</v>
+        <v>618</v>
       </c>
       <c r="T86" s="16" t="s">
         <v>375</v>
@@ -16369,7 +16369,7 @@
         <v>64</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>907</v>
+        <v>715</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>80</v>
@@ -16399,16 +16399,16 @@
         <v>272565</v>
       </c>
       <c r="P87" t="s">
-        <v>569</v>
+        <v>907</v>
       </c>
       <c r="Q87" t="s">
-        <v>713</v>
+        <v>811</v>
       </c>
       <c r="R87" t="s">
         <v>40</v>
       </c>
       <c r="S87" s="16" t="s">
-        <v>811</v>
+        <v>619</v>
       </c>
       <c r="T87" s="16" t="s">
         <v>375</v>
@@ -16495,7 +16495,7 @@
         <v>64</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>908</v>
+        <v>716</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>80</v>
@@ -16525,16 +16525,16 @@
         <v>255208</v>
       </c>
       <c r="P88" t="s">
-        <v>570</v>
+        <v>908</v>
       </c>
       <c r="Q88" t="s">
-        <v>714</v>
+        <v>812</v>
       </c>
       <c r="R88" t="s">
         <v>40</v>
       </c>
       <c r="S88" s="16" t="s">
-        <v>812</v>
+        <v>620</v>
       </c>
       <c r="T88" s="16" t="s">
         <v>375</v>
@@ -16621,7 +16621,7 @@
         <v>64</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>909</v>
+        <v>717</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>80</v>
@@ -16651,16 +16651,16 @@
         <v>228689</v>
       </c>
       <c r="P89" t="s">
-        <v>571</v>
+        <v>909</v>
       </c>
       <c r="Q89" t="s">
-        <v>715</v>
+        <v>813</v>
       </c>
       <c r="R89" t="s">
         <v>40</v>
       </c>
       <c r="S89" s="16" t="s">
-        <v>813</v>
+        <v>621</v>
       </c>
       <c r="T89" s="16" t="s">
         <v>375</v>
@@ -16747,7 +16747,7 @@
         <v>64</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>910</v>
+        <v>718</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>80</v>
@@ -16777,16 +16777,16 @@
         <v>213694</v>
       </c>
       <c r="P90" t="s">
-        <v>572</v>
+        <v>910</v>
       </c>
       <c r="Q90" t="s">
-        <v>716</v>
+        <v>814</v>
       </c>
       <c r="R90" t="s">
         <v>40</v>
       </c>
       <c r="S90" s="16" t="s">
-        <v>814</v>
+        <v>622</v>
       </c>
       <c r="T90" s="16" t="s">
         <v>375</v>
@@ -16873,7 +16873,7 @@
         <v>64</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>911</v>
+        <v>719</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>80</v>
@@ -16903,16 +16903,16 @@
         <v>557394</v>
       </c>
       <c r="P91" t="s">
-        <v>573</v>
+        <v>911</v>
       </c>
       <c r="Q91" t="s">
-        <v>717</v>
+        <v>815</v>
       </c>
       <c r="R91" t="s">
         <v>40</v>
       </c>
       <c r="S91" s="16" t="s">
-        <v>815</v>
+        <v>623</v>
       </c>
       <c r="T91" s="16" t="s">
         <v>375</v>
@@ -16999,7 +16999,7 @@
         <v>64</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>912</v>
+        <v>720</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>80</v>
@@ -17029,16 +17029,16 @@
         <v>254695</v>
       </c>
       <c r="P92" t="s">
-        <v>574</v>
+        <v>912</v>
       </c>
       <c r="Q92" t="s">
-        <v>718</v>
+        <v>816</v>
       </c>
       <c r="R92" t="s">
         <v>40</v>
       </c>
       <c r="S92" s="16" t="s">
-        <v>816</v>
+        <v>624</v>
       </c>
       <c r="T92" s="16" t="s">
         <v>375</v>
@@ -17125,7 +17125,7 @@
         <v>64</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>913</v>
+        <v>721</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>80</v>
@@ -17155,16 +17155,16 @@
         <v>382342</v>
       </c>
       <c r="P93" t="s">
-        <v>575</v>
+        <v>913</v>
       </c>
       <c r="Q93" t="s">
-        <v>719</v>
+        <v>817</v>
       </c>
       <c r="R93" t="s">
         <v>40</v>
       </c>
       <c r="S93" s="16" t="s">
-        <v>817</v>
+        <v>625</v>
       </c>
       <c r="T93" s="16" t="s">
         <v>375</v>
@@ -17251,7 +17251,7 @@
         <v>64</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>914</v>
+        <v>722</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>80</v>
@@ -17281,16 +17281,16 @@
         <v>782350</v>
       </c>
       <c r="P94" t="s">
-        <v>576</v>
+        <v>914</v>
       </c>
       <c r="Q94" t="s">
-        <v>720</v>
+        <v>818</v>
       </c>
       <c r="R94" t="s">
         <v>40</v>
       </c>
       <c r="S94" s="16" t="s">
-        <v>818</v>
+        <v>626</v>
       </c>
       <c r="T94" s="16" t="s">
         <v>375</v>
@@ -17377,7 +17377,7 @@
         <v>64</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>915</v>
+        <v>723</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>80</v>
@@ -17406,17 +17406,17 @@
       <c r="O95" s="40">
         <v>625378</v>
       </c>
-      <c r="P95" s="60" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q95" s="60" t="s">
-        <v>721</v>
+      <c r="P95" s="59" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q95" s="59" t="s">
+        <v>819</v>
       </c>
       <c r="R95" t="s">
         <v>40</v>
       </c>
       <c r="S95" s="16" t="s">
-        <v>819</v>
+        <v>627</v>
       </c>
       <c r="T95" s="16" t="s">
         <v>375</v>
@@ -17503,7 +17503,7 @@
         <v>64</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>916</v>
+        <v>724</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>80</v>
@@ -17533,16 +17533,16 @@
         <v>586533</v>
       </c>
       <c r="P96" t="s">
-        <v>578</v>
+        <v>916</v>
       </c>
       <c r="Q96" t="s">
-        <v>722</v>
+        <v>820</v>
       </c>
       <c r="R96" t="s">
         <v>40</v>
       </c>
       <c r="S96" s="16" t="s">
-        <v>820</v>
+        <v>628</v>
       </c>
       <c r="T96" s="16" t="s">
         <v>375</v>
@@ -17629,7 +17629,7 @@
         <v>64</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>917</v>
+        <v>725</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>80</v>
@@ -17659,16 +17659,16 @@
         <v>615703</v>
       </c>
       <c r="P97" t="s">
-        <v>579</v>
+        <v>917</v>
       </c>
       <c r="Q97" t="s">
-        <v>723</v>
+        <v>821</v>
       </c>
       <c r="R97" t="s">
         <v>40</v>
       </c>
       <c r="S97" s="16" t="s">
-        <v>821</v>
+        <v>629</v>
       </c>
       <c r="T97" s="16" t="s">
         <v>375</v>
@@ -17755,7 +17755,7 @@
         <v>64</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>918</v>
+        <v>726</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>80</v>
@@ -17785,16 +17785,16 @@
         <v>450670</v>
       </c>
       <c r="P98" t="s">
-        <v>580</v>
+        <v>918</v>
       </c>
       <c r="Q98" t="s">
-        <v>724</v>
+        <v>822</v>
       </c>
       <c r="R98" t="s">
         <v>40</v>
       </c>
       <c r="S98" s="16" t="s">
-        <v>822</v>
+        <v>630</v>
       </c>
       <c r="T98" s="16" t="s">
         <v>375</v>
@@ -17881,7 +17881,7 @@
         <v>64</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>919</v>
+        <v>727</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>80</v>
@@ -17911,16 +17911,16 @@
         <v>288008</v>
       </c>
       <c r="P99" t="s">
-        <v>581</v>
+        <v>919</v>
       </c>
       <c r="Q99" t="s">
-        <v>725</v>
+        <v>823</v>
       </c>
       <c r="R99" t="s">
         <v>40</v>
       </c>
       <c r="S99" s="16" t="s">
-        <v>823</v>
+        <v>631</v>
       </c>
       <c r="T99" s="16" t="s">
         <v>375</v>
@@ -18007,7 +18007,7 @@
         <v>64</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>920</v>
+        <v>728</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>80</v>
@@ -18037,16 +18037,16 @@
         <v>270931</v>
       </c>
       <c r="P100" t="s">
-        <v>582</v>
+        <v>920</v>
       </c>
       <c r="Q100" t="s">
-        <v>726</v>
+        <v>824</v>
       </c>
       <c r="R100" t="s">
         <v>40</v>
       </c>
       <c r="S100" s="16" t="s">
-        <v>824</v>
+        <v>632</v>
       </c>
       <c r="T100" s="16" t="s">
         <v>375</v>
@@ -18133,7 +18133,7 @@
         <v>64</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>921</v>
+        <v>729</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>80</v>
@@ -18163,16 +18163,16 @@
         <v>189626</v>
       </c>
       <c r="P101" t="s">
-        <v>583</v>
+        <v>921</v>
       </c>
       <c r="Q101" t="s">
-        <v>727</v>
+        <v>825</v>
       </c>
       <c r="R101" t="s">
         <v>40</v>
       </c>
       <c r="S101" s="16" t="s">
-        <v>825</v>
+        <v>633</v>
       </c>
       <c r="T101" s="16" t="s">
         <v>375</v>
@@ -18259,7 +18259,7 @@
         <v>64</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>922</v>
+        <v>730</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>80</v>
@@ -18289,16 +18289,16 @@
         <v>166961</v>
       </c>
       <c r="P102" t="s">
-        <v>584</v>
+        <v>922</v>
       </c>
       <c r="Q102" t="s">
-        <v>728</v>
+        <v>826</v>
       </c>
       <c r="R102" t="s">
         <v>40</v>
       </c>
       <c r="S102" s="16" t="s">
-        <v>826</v>
+        <v>634</v>
       </c>
       <c r="T102" s="16" t="s">
         <v>375</v>
@@ -18385,7 +18385,7 @@
         <v>64</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>923</v>
+        <v>731</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>80</v>
@@ -18415,16 +18415,16 @@
         <v>492324</v>
       </c>
       <c r="P103" t="s">
-        <v>585</v>
+        <v>923</v>
       </c>
       <c r="Q103" t="s">
-        <v>729</v>
+        <v>827</v>
       </c>
       <c r="R103" t="s">
         <v>40</v>
       </c>
       <c r="S103" s="16" t="s">
-        <v>827</v>
+        <v>635</v>
       </c>
       <c r="T103" s="16" t="s">
         <v>375</v>
@@ -18511,7 +18511,7 @@
         <v>64</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>924</v>
+        <v>732</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>80</v>
@@ -18541,16 +18541,16 @@
         <v>292170</v>
       </c>
       <c r="P104" t="s">
-        <v>586</v>
+        <v>924</v>
       </c>
       <c r="Q104" t="s">
-        <v>730</v>
+        <v>828</v>
       </c>
       <c r="R104" t="s">
         <v>40</v>
       </c>
       <c r="S104" s="16" t="s">
-        <v>828</v>
+        <v>636</v>
       </c>
       <c r="T104" s="16" t="s">
         <v>375</v>
@@ -18637,7 +18637,7 @@
         <v>64</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>925</v>
+        <v>733</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>80</v>
@@ -18667,16 +18667,16 @@
         <v>441437</v>
       </c>
       <c r="P105" t="s">
-        <v>587</v>
+        <v>925</v>
       </c>
       <c r="Q105" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="R105" t="s">
         <v>40</v>
       </c>
       <c r="S105" s="16" t="s">
-        <v>829</v>
+        <v>637</v>
       </c>
       <c r="T105" s="16" t="s">
         <v>375</v>
@@ -18763,7 +18763,7 @@
         <v>64</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>926</v>
+        <v>734</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>80</v>
@@ -18793,16 +18793,16 @@
         <v>357184</v>
       </c>
       <c r="P106" t="s">
-        <v>588</v>
+        <v>926</v>
       </c>
       <c r="Q106" t="s">
-        <v>732</v>
+        <v>830</v>
       </c>
       <c r="R106" t="s">
         <v>40</v>
       </c>
       <c r="S106" s="16" t="s">
-        <v>830</v>
+        <v>638</v>
       </c>
       <c r="T106" s="16" t="s">
         <v>375</v>
@@ -18889,7 +18889,7 @@
         <v>64</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>927</v>
+        <v>735</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>80</v>
@@ -18919,16 +18919,16 @@
         <v>693166</v>
       </c>
       <c r="P107" t="s">
-        <v>589</v>
+        <v>927</v>
       </c>
       <c r="Q107" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="R107" t="s">
         <v>40</v>
       </c>
       <c r="S107" s="16" t="s">
-        <v>831</v>
+        <v>639</v>
       </c>
       <c r="T107" s="16" t="s">
         <v>375</v>
@@ -19015,7 +19015,7 @@
         <v>64</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>928</v>
+        <v>736</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>80</v>
@@ -19045,16 +19045,16 @@
         <v>640700</v>
       </c>
       <c r="P108" t="s">
-        <v>590</v>
+        <v>928</v>
       </c>
       <c r="Q108" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="R108" t="s">
         <v>40</v>
       </c>
       <c r="S108" s="16" t="s">
-        <v>832</v>
+        <v>640</v>
       </c>
       <c r="T108" s="16" t="s">
         <v>375</v>
@@ -19141,7 +19141,7 @@
         <v>64</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>929</v>
+        <v>737</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>80</v>
@@ -19171,16 +19171,16 @@
         <v>456329</v>
       </c>
       <c r="P109" t="s">
-        <v>591</v>
+        <v>929</v>
       </c>
       <c r="Q109" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="R109" t="s">
         <v>40</v>
       </c>
       <c r="S109" s="16" t="s">
-        <v>833</v>
+        <v>641</v>
       </c>
       <c r="T109" s="16" t="s">
         <v>375</v>
@@ -19267,7 +19267,7 @@
         <v>64</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>930</v>
+        <v>738</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>80</v>
@@ -19297,16 +19297,16 @@
         <v>813050</v>
       </c>
       <c r="P110" t="s">
-        <v>592</v>
+        <v>930</v>
       </c>
       <c r="Q110" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
       <c r="R110" t="s">
         <v>40</v>
       </c>
       <c r="S110" s="16" t="s">
-        <v>834</v>
+        <v>642</v>
       </c>
       <c r="T110" s="16" t="s">
         <v>375</v>
@@ -19393,7 +19393,7 @@
         <v>64</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>931</v>
+        <v>739</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>80</v>
@@ -19423,16 +19423,16 @@
         <v>766009</v>
       </c>
       <c r="P111" t="s">
-        <v>593</v>
+        <v>931</v>
       </c>
       <c r="Q111" t="s">
-        <v>737</v>
+        <v>835</v>
       </c>
       <c r="R111" t="s">
         <v>40</v>
       </c>
       <c r="S111" s="16" t="s">
-        <v>835</v>
+        <v>643</v>
       </c>
       <c r="T111" s="16" t="s">
         <v>375</v>
@@ -19519,7 +19519,7 @@
         <v>64</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>932</v>
+        <v>740</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>80</v>
@@ -19549,16 +19549,16 @@
         <v>354013</v>
       </c>
       <c r="P112" t="s">
-        <v>594</v>
+        <v>932</v>
       </c>
       <c r="Q112" t="s">
-        <v>738</v>
+        <v>836</v>
       </c>
       <c r="R112" t="s">
         <v>40</v>
       </c>
       <c r="S112" s="16" t="s">
-        <v>836</v>
+        <v>644</v>
       </c>
       <c r="T112" s="16" t="s">
         <v>375</v>
@@ -19645,7 +19645,7 @@
         <v>64</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>933</v>
+        <v>741</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>80</v>
@@ -19675,16 +19675,16 @@
         <v>530409</v>
       </c>
       <c r="P113" t="s">
-        <v>595</v>
+        <v>933</v>
       </c>
       <c r="Q113" t="s">
-        <v>739</v>
+        <v>837</v>
       </c>
       <c r="R113" t="s">
         <v>40</v>
       </c>
       <c r="S113" s="16" t="s">
-        <v>837</v>
+        <v>645</v>
       </c>
       <c r="T113" s="16" t="s">
         <v>375</v>
@@ -19771,7 +19771,7 @@
         <v>64</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>934</v>
+        <v>742</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>80</v>
@@ -19801,16 +19801,16 @@
         <v>698671</v>
       </c>
       <c r="P114" t="s">
-        <v>596</v>
+        <v>934</v>
       </c>
       <c r="Q114" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="R114" t="s">
         <v>40</v>
       </c>
       <c r="S114" s="16" t="s">
-        <v>838</v>
+        <v>646</v>
       </c>
       <c r="T114" s="16" t="s">
         <v>375</v>
@@ -19897,7 +19897,7 @@
         <v>64</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>935</v>
+        <v>743</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>80</v>
@@ -19927,16 +19927,16 @@
         <v>640313</v>
       </c>
       <c r="P115" t="s">
-        <v>597</v>
+        <v>935</v>
       </c>
       <c r="Q115" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="R115" t="s">
         <v>40</v>
       </c>
       <c r="S115" s="16" t="s">
-        <v>839</v>
+        <v>647</v>
       </c>
       <c r="T115" s="16" t="s">
         <v>375</v>
@@ -20023,7 +20023,7 @@
         <v>64</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>936</v>
+        <v>744</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>80</v>
@@ -20053,16 +20053,16 @@
         <v>384488</v>
       </c>
       <c r="P116" t="s">
-        <v>598</v>
+        <v>936</v>
       </c>
       <c r="Q116" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
       <c r="R116" t="s">
         <v>40</v>
       </c>
       <c r="S116" s="16" t="s">
-        <v>840</v>
+        <v>648</v>
       </c>
       <c r="T116" s="16" t="s">
         <v>375</v>
@@ -20149,7 +20149,7 @@
         <v>64</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>937</v>
+        <v>745</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>80</v>
@@ -20179,16 +20179,16 @@
         <v>303035</v>
       </c>
       <c r="P117" t="s">
-        <v>599</v>
+        <v>937</v>
       </c>
       <c r="Q117" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
       <c r="R117" t="s">
         <v>40</v>
       </c>
       <c r="S117" s="16" t="s">
-        <v>841</v>
+        <v>649</v>
       </c>
       <c r="T117" s="16" t="s">
         <v>375</v>
@@ -20275,7 +20275,7 @@
         <v>64</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>938</v>
+        <v>746</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>80</v>
@@ -20305,16 +20305,16 @@
         <v>37495</v>
       </c>
       <c r="P118" t="s">
-        <v>600</v>
+        <v>938</v>
       </c>
       <c r="Q118" t="s">
-        <v>744</v>
+        <v>842</v>
       </c>
       <c r="R118" t="s">
         <v>40</v>
       </c>
       <c r="S118" s="16" t="s">
-        <v>842</v>
+        <v>650</v>
       </c>
       <c r="T118" s="16" t="s">
         <v>375</v>
@@ -20401,7 +20401,7 @@
         <v>64</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>939</v>
+        <v>747</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>80</v>
@@ -20431,16 +20431,16 @@
         <v>476599</v>
       </c>
       <c r="P119" t="s">
-        <v>601</v>
+        <v>939</v>
       </c>
       <c r="Q119" t="s">
-        <v>745</v>
+        <v>843</v>
       </c>
       <c r="R119" t="s">
         <v>40</v>
       </c>
       <c r="S119" s="16" t="s">
-        <v>843</v>
+        <v>651</v>
       </c>
       <c r="T119" s="16" t="s">
         <v>375</v>
@@ -20527,7 +20527,7 @@
         <v>64</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>940</v>
+        <v>748</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>80</v>
@@ -20557,16 +20557,16 @@
         <v>390979</v>
       </c>
       <c r="P120" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q120" s="60" t="s">
-        <v>746</v>
+        <v>940</v>
+      </c>
+      <c r="Q120" s="59" t="s">
+        <v>844</v>
       </c>
       <c r="R120" t="s">
         <v>40</v>
       </c>
       <c r="S120" s="16" t="s">
-        <v>844</v>
+        <v>652</v>
       </c>
       <c r="T120" s="16" t="s">
         <v>375</v>
@@ -20653,7 +20653,7 @@
         <v>64</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>941</v>
+        <v>749</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>80</v>
@@ -20683,16 +20683,16 @@
         <v>556515</v>
       </c>
       <c r="P121" t="s">
-        <v>603</v>
+        <v>941</v>
       </c>
       <c r="Q121" t="s">
-        <v>747</v>
+        <v>845</v>
       </c>
       <c r="R121" t="s">
         <v>40</v>
       </c>
       <c r="S121" s="16" t="s">
-        <v>845</v>
+        <v>653</v>
       </c>
       <c r="T121" s="16" t="s">
         <v>375</v>
@@ -20779,7 +20779,7 @@
         <v>64</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>942</v>
+        <v>750</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>80</v>
@@ -20809,16 +20809,16 @@
         <v>357495</v>
       </c>
       <c r="P122" t="s">
-        <v>604</v>
+        <v>942</v>
       </c>
       <c r="Q122" t="s">
-        <v>748</v>
+        <v>846</v>
       </c>
       <c r="R122" t="s">
         <v>40</v>
       </c>
       <c r="S122" s="16" t="s">
-        <v>846</v>
+        <v>654</v>
       </c>
       <c r="T122" s="16" t="s">
         <v>375</v>
@@ -20905,7 +20905,7 @@
         <v>64</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>943</v>
+        <v>751</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>80</v>
@@ -20934,17 +20934,17 @@
       <c r="O123" s="40">
         <v>420307</v>
       </c>
-      <c r="P123" t="s">
-        <v>605</v>
+      <c r="P123" s="59" t="s">
+        <v>943</v>
       </c>
       <c r="Q123" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
       <c r="R123" t="s">
         <v>40</v>
       </c>
       <c r="S123" s="16" t="s">
-        <v>847</v>
+        <v>655</v>
       </c>
       <c r="T123" s="16" t="s">
         <v>375</v>
@@ -21031,7 +21031,7 @@
         <v>64</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>944</v>
+        <v>752</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>80</v>
@@ -21061,16 +21061,16 @@
         <v>435032</v>
       </c>
       <c r="P124" t="s">
-        <v>606</v>
+        <v>944</v>
       </c>
       <c r="Q124" t="s">
-        <v>750</v>
+        <v>848</v>
       </c>
       <c r="R124" t="s">
         <v>40</v>
       </c>
       <c r="S124" s="16" t="s">
-        <v>848</v>
+        <v>656</v>
       </c>
       <c r="T124" s="16" t="s">
         <v>375</v>
@@ -21157,7 +21157,7 @@
         <v>64</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>945</v>
+        <v>753</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>80</v>
@@ -21187,16 +21187,16 @@
         <v>344461</v>
       </c>
       <c r="P125" t="s">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="Q125" t="s">
-        <v>751</v>
+        <v>849</v>
       </c>
       <c r="R125" t="s">
         <v>40</v>
       </c>
       <c r="S125" s="16" t="s">
-        <v>849</v>
+        <v>657</v>
       </c>
       <c r="T125" s="16" t="s">
         <v>375</v>
@@ -21283,7 +21283,7 @@
         <v>64</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>946</v>
+        <v>754</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>80</v>
@@ -21313,16 +21313,16 @@
         <v>462073</v>
       </c>
       <c r="P126" t="s">
-        <v>608</v>
+        <v>946</v>
       </c>
       <c r="Q126" t="s">
-        <v>752</v>
+        <v>850</v>
       </c>
       <c r="R126" t="s">
         <v>40</v>
       </c>
       <c r="S126" s="16" t="s">
-        <v>850</v>
+        <v>658</v>
       </c>
       <c r="T126" s="16" t="s">
         <v>375</v>
@@ -21409,7 +21409,7 @@
         <v>64</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>947</v>
+        <v>755</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>80</v>
@@ -21439,16 +21439,16 @@
         <v>491637</v>
       </c>
       <c r="P127" t="s">
-        <v>609</v>
+        <v>947</v>
       </c>
       <c r="Q127" t="s">
-        <v>753</v>
+        <v>851</v>
       </c>
       <c r="R127" t="s">
         <v>40</v>
       </c>
       <c r="S127" s="16" t="s">
-        <v>851</v>
+        <v>659</v>
       </c>
       <c r="T127" s="16" t="s">
         <v>375</v>
@@ -21535,7 +21535,7 @@
         <v>64</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>948</v>
+        <v>756</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>80</v>
@@ -21565,16 +21565,16 @@
         <v>200949</v>
       </c>
       <c r="P128" t="s">
-        <v>610</v>
+        <v>948</v>
       </c>
       <c r="Q128" t="s">
-        <v>754</v>
+        <v>852</v>
       </c>
       <c r="R128" t="s">
         <v>40</v>
       </c>
       <c r="S128" s="16" t="s">
-        <v>852</v>
+        <v>660</v>
       </c>
       <c r="T128" s="16" t="s">
         <v>375</v>
@@ -21661,7 +21661,7 @@
         <v>64</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>949</v>
+        <v>757</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>80</v>
@@ -21691,16 +21691,16 @@
         <v>653636</v>
       </c>
       <c r="P129" t="s">
-        <v>611</v>
+        <v>949</v>
       </c>
       <c r="Q129" t="s">
-        <v>755</v>
+        <v>853</v>
       </c>
       <c r="R129" t="s">
         <v>40</v>
       </c>
       <c r="S129" s="16" t="s">
-        <v>853</v>
+        <v>661</v>
       </c>
       <c r="T129" s="16" t="s">
         <v>375</v>
@@ -21787,7 +21787,7 @@
         <v>64</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>950</v>
+        <v>758</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>80</v>
@@ -21817,16 +21817,16 @@
         <v>420015</v>
       </c>
       <c r="P130" t="s">
-        <v>612</v>
+        <v>950</v>
       </c>
       <c r="Q130" t="s">
-        <v>756</v>
+        <v>854</v>
       </c>
       <c r="R130" t="s">
         <v>40</v>
       </c>
       <c r="S130" s="16" t="s">
-        <v>854</v>
+        <v>662</v>
       </c>
       <c r="T130" s="16" t="s">
         <v>375</v>
@@ -21913,7 +21913,7 @@
         <v>64</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>951</v>
+        <v>759</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>80</v>
@@ -21943,16 +21943,16 @@
         <v>397788</v>
       </c>
       <c r="P131" t="s">
-        <v>613</v>
+        <v>951</v>
       </c>
       <c r="Q131" t="s">
-        <v>757</v>
+        <v>855</v>
       </c>
       <c r="R131" t="s">
         <v>40</v>
       </c>
       <c r="S131" s="16" t="s">
-        <v>855</v>
+        <v>663</v>
       </c>
       <c r="T131" s="16" t="s">
         <v>375</v>
@@ -22039,7 +22039,7 @@
         <v>64</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>952</v>
+        <v>760</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>80</v>
@@ -22069,16 +22069,16 @@
         <v>415236</v>
       </c>
       <c r="P132" t="s">
-        <v>614</v>
+        <v>952</v>
       </c>
       <c r="Q132" t="s">
-        <v>758</v>
+        <v>856</v>
       </c>
       <c r="R132" t="s">
         <v>40</v>
       </c>
       <c r="S132" s="16" t="s">
-        <v>856</v>
+        <v>664</v>
       </c>
       <c r="T132" s="16" t="s">
         <v>375</v>
@@ -22165,7 +22165,7 @@
         <v>64</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>953</v>
+        <v>761</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>80</v>
@@ -22195,16 +22195,16 @@
         <v>378436</v>
       </c>
       <c r="P133" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>759</v>
+        <v>953</v>
+      </c>
+      <c r="Q133" s="59" t="s">
+        <v>857</v>
       </c>
       <c r="R133" t="s">
         <v>40</v>
       </c>
       <c r="S133" s="16" t="s">
-        <v>857</v>
+        <v>665</v>
       </c>
       <c r="T133" s="16" t="s">
         <v>375</v>
@@ -22291,7 +22291,7 @@
         <v>64</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>954</v>
+        <v>762</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>80</v>
@@ -22321,16 +22321,16 @@
         <v>617283</v>
       </c>
       <c r="P134" t="s">
-        <v>616</v>
+        <v>954</v>
       </c>
       <c r="Q134" t="s">
-        <v>760</v>
+        <v>858</v>
       </c>
       <c r="R134" t="s">
         <v>40</v>
       </c>
       <c r="S134" s="16" t="s">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="T134" s="16" t="s">
         <v>375</v>
@@ -22417,7 +22417,7 @@
         <v>64</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>955</v>
+        <v>763</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>80</v>
@@ -22447,16 +22447,16 @@
         <v>407554</v>
       </c>
       <c r="P135" t="s">
-        <v>617</v>
+        <v>955</v>
       </c>
       <c r="Q135" t="s">
-        <v>761</v>
+        <v>859</v>
       </c>
       <c r="R135" t="s">
         <v>40</v>
       </c>
       <c r="S135" s="16" t="s">
-        <v>859</v>
+        <v>667</v>
       </c>
       <c r="T135" s="16" t="s">
         <v>375</v>
@@ -22543,7 +22543,7 @@
         <v>64</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>956</v>
+        <v>764</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>80</v>
@@ -22573,16 +22573,16 @@
         <v>486844</v>
       </c>
       <c r="P136" t="s">
-        <v>618</v>
+        <v>956</v>
       </c>
       <c r="Q136" t="s">
-        <v>762</v>
+        <v>860</v>
       </c>
       <c r="R136" t="s">
         <v>40</v>
       </c>
       <c r="S136" s="16" t="s">
-        <v>860</v>
+        <v>668</v>
       </c>
       <c r="T136" s="16" t="s">
         <v>375</v>
@@ -22669,7 +22669,7 @@
         <v>64</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>957</v>
+        <v>765</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>80</v>
@@ -22699,16 +22699,16 @@
         <v>620456</v>
       </c>
       <c r="P137" t="s">
-        <v>619</v>
+        <v>957</v>
       </c>
       <c r="Q137" t="s">
-        <v>763</v>
+        <v>861</v>
       </c>
       <c r="R137" t="s">
         <v>40</v>
       </c>
       <c r="S137" s="16" t="s">
-        <v>861</v>
+        <v>669</v>
       </c>
       <c r="T137" s="16" t="s">
         <v>375</v>
@@ -22795,7 +22795,7 @@
         <v>64</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>958</v>
+        <v>766</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>80</v>
@@ -22825,16 +22825,16 @@
         <v>514775</v>
       </c>
       <c r="P138" t="s">
-        <v>620</v>
+        <v>958</v>
       </c>
       <c r="Q138" t="s">
-        <v>764</v>
+        <v>862</v>
       </c>
       <c r="R138" t="s">
         <v>40</v>
       </c>
       <c r="S138" s="16" t="s">
-        <v>862</v>
+        <v>670</v>
       </c>
       <c r="T138" s="16" t="s">
         <v>375</v>
@@ -22921,7 +22921,7 @@
         <v>64</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>959</v>
+        <v>767</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>80</v>
@@ -22951,16 +22951,16 @@
         <v>294357</v>
       </c>
       <c r="P139" t="s">
-        <v>621</v>
+        <v>959</v>
       </c>
       <c r="Q139" t="s">
-        <v>765</v>
+        <v>863</v>
       </c>
       <c r="R139" t="s">
         <v>40</v>
       </c>
       <c r="S139" s="16" t="s">
-        <v>863</v>
+        <v>671</v>
       </c>
       <c r="T139" s="16" t="s">
         <v>375</v>
@@ -23047,7 +23047,7 @@
         <v>64</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>960</v>
+        <v>768</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>80</v>
@@ -23077,16 +23077,16 @@
         <v>365612</v>
       </c>
       <c r="P140" t="s">
-        <v>622</v>
+        <v>960</v>
       </c>
       <c r="Q140" t="s">
-        <v>766</v>
+        <v>864</v>
       </c>
       <c r="R140" t="s">
         <v>40</v>
       </c>
       <c r="S140" s="16" t="s">
-        <v>864</v>
+        <v>672</v>
       </c>
       <c r="T140" s="16" t="s">
         <v>375</v>
@@ -23173,7 +23173,7 @@
         <v>64</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>961</v>
+        <v>769</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>80</v>
@@ -23203,16 +23203,16 @@
         <v>366407</v>
       </c>
       <c r="P141" t="s">
-        <v>623</v>
+        <v>961</v>
       </c>
       <c r="Q141" t="s">
-        <v>767</v>
+        <v>865</v>
       </c>
       <c r="R141" t="s">
         <v>40</v>
       </c>
       <c r="S141" s="16" t="s">
-        <v>865</v>
+        <v>673</v>
       </c>
       <c r="T141" s="16" t="s">
         <v>375</v>
@@ -23299,7 +23299,7 @@
         <v>64</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>962</v>
+        <v>770</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>80</v>
@@ -23329,16 +23329,16 @@
         <v>396834</v>
       </c>
       <c r="P142" t="s">
-        <v>624</v>
+        <v>962</v>
       </c>
       <c r="Q142" t="s">
-        <v>768</v>
+        <v>866</v>
       </c>
       <c r="R142" t="s">
         <v>40</v>
       </c>
       <c r="S142" s="16" t="s">
-        <v>866</v>
+        <v>674</v>
       </c>
       <c r="T142" s="16" t="s">
         <v>375</v>
@@ -23425,7 +23425,7 @@
         <v>64</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>963</v>
+        <v>771</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>80</v>
@@ -23455,16 +23455,16 @@
         <v>441957</v>
       </c>
       <c r="P143" t="s">
-        <v>625</v>
+        <v>963</v>
       </c>
       <c r="Q143" t="s">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="R143" t="s">
         <v>40</v>
       </c>
       <c r="S143" s="16" t="s">
-        <v>867</v>
+        <v>675</v>
       </c>
       <c r="T143" s="16" t="s">
         <v>375</v>
@@ -23551,7 +23551,7 @@
         <v>64</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>964</v>
+        <v>772</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>80</v>
@@ -23581,16 +23581,16 @@
         <v>463950</v>
       </c>
       <c r="P144" t="s">
-        <v>626</v>
+        <v>964</v>
       </c>
       <c r="Q144" t="s">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="R144" t="s">
         <v>40</v>
       </c>
       <c r="S144" s="16" t="s">
-        <v>868</v>
+        <v>676</v>
       </c>
       <c r="T144" s="16" t="s">
         <v>375</v>
@@ -23677,7 +23677,7 @@
         <v>64</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>965</v>
+        <v>773</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>80</v>
@@ -23707,16 +23707,16 @@
         <v>523421</v>
       </c>
       <c r="P145" t="s">
-        <v>627</v>
+        <v>965</v>
       </c>
       <c r="Q145" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="R145" t="s">
         <v>40</v>
       </c>
       <c r="S145" s="16" t="s">
-        <v>869</v>
+        <v>677</v>
       </c>
       <c r="T145" s="16" t="s">
         <v>375</v>
@@ -23791,150 +23791,160 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:68" s="68" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="62">
+    <row r="146" spans="1:68" s="67" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="61">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B146" s="63">
+      <c r="B146" s="62">
         <v>144</v>
       </c>
-      <c r="C146" s="64" t="s">
+      <c r="C146" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D146" s="64" t="s">
+      <c r="D146" s="63" t="s">
+        <v>774</v>
+      </c>
+      <c r="E146" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F146" s="61"/>
+      <c r="G146" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H146" s="65" t="s">
+        <v>484</v>
+      </c>
+      <c r="I146" s="66" t="s">
+        <v>483</v>
+      </c>
+      <c r="J146" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="K146" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="L146" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="N146" s="68">
+        <v>381577</v>
+      </c>
+      <c r="O146" s="69">
+        <v>381577</v>
+      </c>
+      <c r="P146" s="67" t="s">
         <v>966</v>
       </c>
-      <c r="E146" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F146" s="62"/>
-      <c r="G146" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H146" s="66" t="s">
-        <v>484</v>
-      </c>
-      <c r="I146" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="J146" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="K146" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="L146" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="N146" s="69">
-        <v>381577</v>
-      </c>
-      <c r="O146" s="70">
-        <v>381577</v>
-      </c>
-      <c r="P146" s="68" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q146" s="68" t="s">
-        <v>772</v>
-      </c>
-      <c r="R146" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="S146" s="71" t="s">
+      <c r="Q146" s="67" t="s">
         <v>870</v>
       </c>
-      <c r="T146" s="71" t="s">
+      <c r="R146" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="S146" s="70" t="s">
+        <v>678</v>
+      </c>
+      <c r="T146" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="V146" s="72" t="s">
+      <c r="V146" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="W146" s="71" t="s">
+      <c r="W146" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="X146" s="73" t="s">
+      <c r="X146" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="Y146" s="72" t="s">
+      <c r="Y146" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="Z146" s="71" t="s">
+      <c r="Z146" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="AA146" s="73" t="s">
+      <c r="AA146" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AC146" s="74">
-        <v>0</v>
-      </c>
-      <c r="AD146" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE146" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF146" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG146" s="76"/>
-      <c r="AJ146" s="68" t="s">
+      <c r="AC146" s="73">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE146" s="73">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG146" s="75"/>
+      <c r="AJ146" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AK146" s="68" t="s">
+      <c r="AK146" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AL146" s="68" t="s">
+      <c r="AL146" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="AM146" s="68" t="s">
+      <c r="AM146" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AN146" s="68" t="s">
+      <c r="AN146" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AO146" s="68" t="s">
+      <c r="AO146" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="AP146" s="68" t="s">
+      <c r="AP146" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="AQ146" s="68">
+      <c r="AQ146" s="67">
         <v>100</v>
       </c>
-      <c r="AR146" s="68">
+      <c r="AR146" s="67">
         <v>100</v>
       </c>
-      <c r="AY146" s="78">
+      <c r="AY146" s="77">
         <v>35064</v>
       </c>
-      <c r="AZ146" s="62">
-        <v>0</v>
-      </c>
-      <c r="BA146" s="62">
-        <v>0</v>
-      </c>
-      <c r="BB146" s="68" t="s">
+      <c r="AZ146" s="61">
+        <v>0</v>
+      </c>
+      <c r="BA146" s="61">
+        <v>0</v>
+      </c>
+      <c r="BB146" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="BC146" s="71"/>
-      <c r="BD146" s="71"/>
-      <c r="BI146" s="79"/>
-      <c r="BJ146" s="79"/>
-      <c r="BK146" s="79"/>
-      <c r="BL146" s="79"/>
-      <c r="BM146" s="79"/>
-      <c r="BN146" s="79"/>
-      <c r="BO146" s="79"/>
-      <c r="BP146" s="79"/>
+      <c r="BC146" s="70"/>
+      <c r="BD146" s="70"/>
+      <c r="BI146" s="78"/>
+      <c r="BJ146" s="78"/>
+      <c r="BK146" s="78"/>
+      <c r="BL146" s="78"/>
+      <c r="BM146" s="78"/>
+      <c r="BN146" s="78"/>
+      <c r="BO146" s="78"/>
+      <c r="BP146" s="78"/>
     </row>
     <row r="147" spans="1:68" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -23952,24 +23962,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/epfl/granular_sludge/metadata.xlsx
+++ b/metadata/excel/projects/epfl/granular_sludge/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="48920" windowHeight="28240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -4388,10 +4388,10 @@
   </sheetPr>
   <dimension ref="A1:BQ147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
+      <selection pane="bottomLeft" activeCell="BJ7" sqref="BJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23932,19 +23932,9 @@
     <row r="147" spans="1:68" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -23962,14 +23952,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
